--- a/Exemplo_U_guatterioides.xlsx
+++ b/Exemplo_U_guatterioides.xlsx
@@ -19,14 +19,14 @@
     <t>codigo</t>
   </si>
   <si>
-    <t>ASD</t>
+    <t>DSDd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,19 +34,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,7 +69,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,974 +392,2568 @@
   <dimension ref="A1:BZT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2048" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1">
+        <v>153</v>
+      </c>
+      <c r="F1" s="1">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1">
+        <v>155</v>
+      </c>
+      <c r="H1" s="1">
+        <v>156</v>
+      </c>
+      <c r="I1" s="1">
+        <v>157</v>
+      </c>
+      <c r="J1" s="1">
+        <v>158</v>
+      </c>
+      <c r="K1" s="1">
+        <v>159</v>
+      </c>
+      <c r="L1" s="1">
+        <v>160</v>
+      </c>
+      <c r="M1" s="1">
+        <v>161</v>
+      </c>
+      <c r="N1" s="1">
+        <v>162</v>
+      </c>
+      <c r="O1" s="1">
+        <v>163</v>
+      </c>
+      <c r="P1" s="1">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>165</v>
+      </c>
+      <c r="R1" s="1">
+        <v>166</v>
+      </c>
+      <c r="S1" s="1">
+        <v>167</v>
+      </c>
+      <c r="T1" s="1">
+        <v>168</v>
+      </c>
+      <c r="U1" s="1">
+        <v>169</v>
+      </c>
+      <c r="V1" s="1">
+        <v>170</v>
+      </c>
+      <c r="W1" s="1">
+        <v>171</v>
+      </c>
+      <c r="X1" s="1">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>173</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>174</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>175</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>176</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>177</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>181</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>182</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>183</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>184</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>185</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>186</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>187</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>188</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>189</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>190</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>191</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>192</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>193</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>194</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>195</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>196</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>197</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>198</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>199</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>200</v>
+      </c>
+      <c r="BA1" s="1">
         <v>201</v>
       </c>
-      <c r="C1" s="3">
+      <c r="BB1" s="1">
+        <v>202</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>203</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>204</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>205</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>206</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>207</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>208</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>209</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>210</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>211</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>212</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>213</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>214</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>215</v>
+      </c>
+      <c r="BP1" s="1">
         <v>216</v>
       </c>
-      <c r="D1" s="3">
+      <c r="BQ1" s="1">
         <v>217</v>
       </c>
-      <c r="E1" s="3">
+      <c r="BR1" s="1">
+        <v>218</v>
+      </c>
+      <c r="BS1" s="1">
         <v>219</v>
       </c>
-      <c r="F1" s="3">
+      <c r="BT1" s="1">
         <v>220</v>
       </c>
-      <c r="G1" s="3">
+      <c r="BU1" s="1">
+        <v>221</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>222</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>223</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>224</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>225</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>226</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>227</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>228</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>229</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>230</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>231</v>
+      </c>
+      <c r="CF1" s="1">
         <v>232</v>
       </c>
-      <c r="H1" s="3">
+      <c r="CG1" s="1">
         <v>233</v>
       </c>
-      <c r="I1" s="3">
+      <c r="CH1" s="1">
         <v>234</v>
       </c>
-      <c r="J1" s="3">
+      <c r="CI1" s="1">
         <v>235</v>
       </c>
-      <c r="K1" s="3">
+      <c r="CJ1" s="1">
         <v>236</v>
       </c>
-      <c r="L1" s="3">
+      <c r="CK1" s="1">
         <v>237</v>
       </c>
-      <c r="M1" s="3">
+      <c r="CL1" s="1">
+        <v>238</v>
+      </c>
+      <c r="CM1" s="1">
         <v>239</v>
       </c>
-      <c r="N1" s="3">
+      <c r="CN1" s="1">
+        <v>240</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>241</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>242</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>243</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>244</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>245</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>246</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>247</v>
+      </c>
+      <c r="CV1" s="1">
         <v>248</v>
       </c>
-      <c r="O1" s="3">
+      <c r="CW1" s="1">
         <v>249</v>
       </c>
-      <c r="P1" s="3">
+      <c r="CX1" s="1">
         <v>250</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="CY1" s="1">
         <v>251</v>
       </c>
-      <c r="R1" s="3">
+      <c r="CZ1" s="1">
         <v>252</v>
       </c>
-      <c r="S1" s="3">
+      <c r="DA1" s="1">
         <v>253</v>
       </c>
-      <c r="T1" s="3">
+      <c r="DB1" s="1">
         <v>254</v>
       </c>
-      <c r="U1" s="3">
+      <c r="DC1" s="1">
+        <v>255</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>256</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>257</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>258</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>259</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>260</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>261</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>262</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>263</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>264</v>
+      </c>
+      <c r="DM1" s="1">
         <v>265</v>
       </c>
-      <c r="V1" s="3">
+      <c r="DN1" s="1">
         <v>266</v>
       </c>
-      <c r="W1" s="3">
+      <c r="DO1" s="1">
         <v>267</v>
       </c>
-      <c r="X1" s="3">
+      <c r="DP1" s="1">
         <v>268</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="DQ1" s="1">
         <v>269</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="DR1" s="1">
         <v>270</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="DS1" s="1">
         <v>271</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="DT1" s="1">
         <v>272</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="DU1" s="1">
+        <v>273</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>274</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>275</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>276</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>277</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>278</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>279</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>280</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>281</v>
+      </c>
+      <c r="ED1" s="1">
         <v>282</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="EE1" s="1">
         <v>283</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="EF1" s="1">
         <v>284</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="EG1" s="1">
+        <v>285</v>
+      </c>
+      <c r="EH1" s="1">
         <v>286</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="EI1" s="1">
         <v>287</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="EJ1" s="1">
+        <v>288</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>289</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>290</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>291</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>292</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>293</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>294</v>
+      </c>
+      <c r="EQ1" s="1">
         <v>295</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="ER1" s="1">
         <v>296</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="ES1" s="1">
+        <v>297</v>
+      </c>
+      <c r="ET1" s="1">
         <v>298</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="EU1" s="1">
         <v>299</v>
       </c>
-      <c r="AL1" s="3">
+      <c r="EV1" s="1">
         <v>300</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="EW1" s="1">
         <v>301</v>
       </c>
-      <c r="AN1" s="3">
+      <c r="EX1" s="1">
+        <v>302</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>303</v>
+      </c>
+      <c r="EZ1" s="1">
         <v>304</v>
       </c>
-      <c r="AO1" s="3">
+      <c r="FA1" s="1">
+        <v>305</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>306</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>307</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>308</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>309</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>310</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>311</v>
+      </c>
+      <c r="FH1" s="1">
         <v>312</v>
       </c>
-      <c r="AP1" s="3">
+      <c r="FI1" s="1">
         <v>313</v>
       </c>
-      <c r="AQ1" s="3">
+      <c r="FJ1" s="1">
         <v>314</v>
       </c>
-      <c r="AR1" s="3">
+      <c r="FK1" s="1">
+        <v>315</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>316</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>317</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>318</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>319</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>320</v>
+      </c>
+      <c r="FQ1" s="1">
         <v>321</v>
       </c>
-      <c r="AS1" s="3">
+      <c r="FR1" s="1">
+        <v>322</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>323</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>324</v>
+      </c>
+      <c r="FU1" s="1">
         <v>325</v>
       </c>
-      <c r="AT1" s="3">
+      <c r="FV1" s="1">
         <v>326</v>
       </c>
-      <c r="AU1" s="3">
+      <c r="FW1" s="1">
+        <v>327</v>
+      </c>
+      <c r="FX1" s="1">
         <v>328</v>
       </c>
-      <c r="AV1" s="3">
+      <c r="FY1" s="1">
         <v>329</v>
       </c>
-      <c r="AW1" s="3">
+      <c r="FZ1" s="1">
         <v>330</v>
       </c>
-      <c r="AX1" s="3">
+      <c r="GA1" s="1">
         <v>331</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="GB1" s="1">
+        <v>332</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>333</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>334</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>335</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>336</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>337</v>
+      </c>
+      <c r="GH1" s="1">
         <v>338</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="GI1" s="1">
+        <v>339</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>340</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>341</v>
+      </c>
+      <c r="GL1" s="1">
         <v>342</v>
       </c>
-      <c r="BA1" s="3">
+      <c r="GM1" s="1">
         <v>343</v>
       </c>
-      <c r="BB1" s="3">
+      <c r="GN1" s="1">
+        <v>344</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>345</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>346</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>347</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>348</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>349</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>350</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>351</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>352</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>353</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>354</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>355</v>
+      </c>
+      <c r="GZ1" s="1">
         <v>356</v>
       </c>
-      <c r="BC1" s="3">
+      <c r="HA1" s="1">
+        <v>357</v>
+      </c>
+      <c r="HB1" s="1">
         <v>358</v>
       </c>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
-      <c r="IW1" s="1"/>
-      <c r="IX1" s="1"/>
-      <c r="IY1" s="1"/>
-      <c r="IZ1" s="1"/>
-      <c r="JA1" s="1"/>
-      <c r="JB1" s="1"/>
-      <c r="JC1" s="1"/>
-      <c r="JD1" s="1"/>
-      <c r="JE1" s="1"/>
-      <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
-      <c r="JH1" s="1"/>
-      <c r="JI1" s="1"/>
-      <c r="JJ1" s="1"/>
-      <c r="JK1" s="1"/>
-      <c r="JL1" s="1"/>
-      <c r="JM1" s="1"/>
-      <c r="JN1" s="1"/>
-      <c r="JO1" s="1"/>
-      <c r="JP1" s="1"/>
-      <c r="JQ1" s="1"/>
-      <c r="JR1" s="1"/>
-      <c r="JS1" s="1"/>
-      <c r="JT1" s="1"/>
-      <c r="JU1" s="1"/>
-      <c r="JV1" s="1"/>
-      <c r="JW1" s="1"/>
-      <c r="JX1" s="1"/>
-      <c r="JY1" s="1"/>
-      <c r="JZ1" s="1"/>
-      <c r="KA1" s="1"/>
-      <c r="KB1" s="1"/>
-      <c r="KC1" s="1"/>
-      <c r="KD1" s="1"/>
-      <c r="KE1" s="1"/>
-      <c r="KF1" s="1"/>
-      <c r="KG1" s="1"/>
-      <c r="KH1" s="1"/>
-      <c r="KI1" s="1"/>
-      <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
-      <c r="KL1" s="1"/>
-      <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
-      <c r="KO1" s="1"/>
-      <c r="KP1" s="1"/>
-      <c r="KQ1" s="1"/>
-      <c r="KR1" s="1"/>
-      <c r="KS1" s="1"/>
-      <c r="KT1" s="1"/>
-      <c r="KU1" s="1"/>
-      <c r="KV1" s="1"/>
-      <c r="KW1" s="1"/>
-      <c r="KX1" s="1"/>
-      <c r="KY1" s="1"/>
-      <c r="KZ1" s="1"/>
-      <c r="LA1" s="1"/>
-      <c r="LB1" s="1"/>
-      <c r="LC1" s="1"/>
-      <c r="LD1" s="1"/>
-      <c r="LE1" s="1"/>
-      <c r="LF1" s="1"/>
-      <c r="LG1" s="1"/>
-      <c r="LH1" s="1"/>
-      <c r="LI1" s="1"/>
-      <c r="LJ1" s="1"/>
-      <c r="LK1" s="1"/>
-      <c r="LL1" s="1"/>
-      <c r="LM1" s="1"/>
-      <c r="LN1" s="1"/>
-      <c r="LO1" s="1"/>
-      <c r="LP1" s="1"/>
-      <c r="LQ1" s="1"/>
-      <c r="LR1" s="1"/>
-      <c r="LS1" s="1"/>
-      <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
-      <c r="LV1" s="1"/>
-      <c r="LW1" s="1"/>
-      <c r="LX1" s="1"/>
-      <c r="LY1" s="1"/>
-      <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
-      <c r="MB1" s="1"/>
-      <c r="MC1" s="1"/>
-      <c r="MD1" s="1"/>
-      <c r="ME1" s="1"/>
-      <c r="MF1" s="1"/>
-      <c r="MG1" s="1"/>
-      <c r="MH1" s="1"/>
-      <c r="MI1" s="1"/>
-      <c r="MJ1" s="1"/>
-      <c r="MK1" s="1"/>
-      <c r="ML1" s="1"/>
-      <c r="MM1" s="1"/>
-      <c r="MN1" s="1"/>
-      <c r="MO1" s="1"/>
-      <c r="MP1" s="1"/>
-      <c r="MQ1" s="1"/>
-      <c r="MR1" s="1"/>
-      <c r="MS1" s="1"/>
-      <c r="MT1" s="1"/>
-      <c r="MU1" s="1"/>
-      <c r="MV1" s="1"/>
-      <c r="MW1" s="1"/>
-      <c r="MX1" s="1"/>
-      <c r="MY1" s="1"/>
-      <c r="MZ1" s="1"/>
-      <c r="NA1" s="1"/>
-      <c r="NB1" s="1"/>
-      <c r="NC1" s="1"/>
-      <c r="ND1" s="1"/>
-      <c r="NE1" s="1"/>
-      <c r="NF1" s="1"/>
-      <c r="NG1" s="1"/>
-      <c r="NH1" s="1"/>
-      <c r="NI1" s="1"/>
-      <c r="NJ1" s="1"/>
-      <c r="NK1" s="1"/>
-      <c r="NL1" s="1"/>
-      <c r="NM1" s="1"/>
-      <c r="NN1" s="1"/>
-      <c r="NO1" s="1"/>
-      <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
-      <c r="NR1" s="1"/>
-      <c r="NS1" s="1"/>
-      <c r="NT1" s="1"/>
-      <c r="NU1" s="1"/>
-      <c r="NV1" s="1"/>
-      <c r="NW1" s="1"/>
-      <c r="NX1" s="1"/>
-      <c r="NY1" s="1"/>
-      <c r="NZ1" s="1"/>
-      <c r="OA1" s="1"/>
-      <c r="OB1" s="1"/>
-      <c r="OC1" s="1"/>
-      <c r="OD1" s="1"/>
-      <c r="OE1" s="1"/>
-      <c r="OF1" s="1"/>
-      <c r="OG1" s="1"/>
-      <c r="OH1" s="1"/>
-      <c r="OI1" s="1"/>
-      <c r="OJ1" s="1"/>
-      <c r="OK1" s="1"/>
-      <c r="OL1" s="1"/>
-      <c r="OM1" s="1"/>
-      <c r="ON1" s="1"/>
-      <c r="OO1" s="1"/>
-      <c r="OP1" s="1"/>
-      <c r="OQ1" s="1"/>
-      <c r="OR1" s="1"/>
-      <c r="OS1" s="1"/>
-      <c r="OT1" s="1"/>
-      <c r="OU1" s="1"/>
-      <c r="OV1" s="1"/>
-      <c r="OW1" s="1"/>
-      <c r="OX1" s="1"/>
-      <c r="OY1" s="1"/>
-      <c r="OZ1" s="1"/>
-      <c r="PA1" s="1"/>
-      <c r="PB1" s="1"/>
-      <c r="PC1" s="1"/>
-      <c r="PD1" s="1"/>
-      <c r="PE1" s="1"/>
-      <c r="PF1" s="1"/>
-      <c r="PG1" s="1"/>
-      <c r="PH1" s="1"/>
-      <c r="PI1" s="1"/>
-      <c r="PJ1" s="1"/>
-      <c r="PK1" s="1"/>
-      <c r="PL1" s="1"/>
-      <c r="PM1" s="1"/>
-      <c r="PN1" s="1"/>
-      <c r="PO1" s="1"/>
-      <c r="PP1" s="1"/>
-      <c r="PQ1" s="1"/>
-      <c r="PR1" s="1"/>
-      <c r="PS1" s="1"/>
-      <c r="PT1" s="1"/>
-      <c r="PU1" s="1"/>
-      <c r="PV1" s="1"/>
-      <c r="PW1" s="1"/>
-      <c r="PX1" s="1"/>
-      <c r="PY1" s="1"/>
-      <c r="PZ1" s="1"/>
-      <c r="QA1" s="1"/>
-      <c r="QB1" s="1"/>
-      <c r="QC1" s="1"/>
-      <c r="QD1" s="1"/>
-      <c r="QE1" s="1"/>
-      <c r="QF1" s="1"/>
-      <c r="QG1" s="1"/>
-      <c r="QH1" s="1"/>
-      <c r="QI1" s="1"/>
-      <c r="QJ1" s="1"/>
-      <c r="QK1" s="1"/>
-      <c r="QL1" s="1"/>
-      <c r="QM1" s="1"/>
-      <c r="QN1" s="1"/>
-      <c r="QO1" s="1"/>
-      <c r="QP1" s="1"/>
-      <c r="QQ1" s="1"/>
-      <c r="QR1" s="1"/>
-      <c r="QS1" s="1"/>
-      <c r="QT1" s="1"/>
-      <c r="QU1" s="1"/>
-      <c r="QV1" s="1"/>
-      <c r="QW1" s="1"/>
-      <c r="QX1" s="1"/>
-      <c r="QY1" s="1"/>
-      <c r="QZ1" s="1"/>
-      <c r="RA1" s="1"/>
-      <c r="RB1" s="1"/>
-      <c r="RC1" s="1"/>
-      <c r="RD1" s="1"/>
-      <c r="RE1" s="1"/>
-      <c r="RF1" s="1"/>
-      <c r="RG1" s="1"/>
-      <c r="RH1" s="1"/>
-      <c r="RI1" s="1"/>
-      <c r="RJ1" s="1"/>
-      <c r="RK1" s="1"/>
-      <c r="RL1" s="1"/>
-      <c r="RM1" s="1"/>
-      <c r="RN1" s="1"/>
-      <c r="RO1" s="1"/>
-      <c r="RP1" s="1"/>
-      <c r="RQ1" s="1"/>
-      <c r="RR1" s="1"/>
-      <c r="RS1" s="1"/>
-      <c r="RT1" s="1"/>
-      <c r="RU1" s="1"/>
-      <c r="RV1" s="1"/>
-      <c r="RW1" s="1"/>
-      <c r="RX1" s="1"/>
-      <c r="RY1" s="1"/>
-      <c r="RZ1" s="1"/>
-      <c r="SA1" s="1"/>
-      <c r="SB1" s="1"/>
-      <c r="SC1" s="1"/>
-      <c r="SD1" s="1"/>
-      <c r="SE1" s="1"/>
-      <c r="SF1" s="1"/>
-      <c r="SG1" s="1"/>
-      <c r="SH1" s="1"/>
-      <c r="SI1" s="1"/>
-      <c r="SJ1" s="1"/>
-      <c r="SK1" s="1"/>
-      <c r="SL1" s="1"/>
-      <c r="SM1" s="1"/>
-      <c r="SN1" s="1"/>
-      <c r="SO1" s="1"/>
-      <c r="SP1" s="1"/>
-      <c r="SQ1" s="1"/>
-      <c r="SR1" s="1"/>
-      <c r="SS1" s="1"/>
-      <c r="ST1" s="1"/>
-      <c r="SU1" s="1"/>
-      <c r="SV1" s="1"/>
-      <c r="SW1" s="1"/>
-      <c r="SX1" s="1"/>
-      <c r="SY1" s="1"/>
-      <c r="SZ1" s="1"/>
-      <c r="TA1" s="1"/>
-      <c r="TB1" s="1"/>
-      <c r="TC1" s="1"/>
-      <c r="TD1" s="1"/>
-      <c r="TE1" s="1"/>
-      <c r="TF1" s="1"/>
-      <c r="TG1" s="1"/>
-      <c r="TH1" s="1"/>
-      <c r="TI1" s="1"/>
-      <c r="TJ1" s="1"/>
-      <c r="TK1" s="1"/>
-      <c r="TL1" s="1"/>
-      <c r="TM1" s="1"/>
-      <c r="TN1" s="1"/>
-      <c r="TO1" s="1"/>
-      <c r="TP1" s="1"/>
-      <c r="TQ1" s="1"/>
-      <c r="TR1" s="1"/>
-      <c r="TS1" s="1"/>
-      <c r="TT1" s="1"/>
-      <c r="TU1" s="1"/>
-      <c r="TV1" s="1"/>
-      <c r="TW1" s="1"/>
-      <c r="TX1" s="1"/>
-      <c r="TY1" s="1"/>
-      <c r="TZ1" s="1"/>
-      <c r="UA1" s="1"/>
-      <c r="UB1" s="1"/>
-      <c r="UC1" s="1"/>
-      <c r="UD1" s="1"/>
-      <c r="UE1" s="1"/>
-      <c r="UF1" s="1"/>
-      <c r="UG1" s="1"/>
-      <c r="UH1" s="1"/>
-      <c r="UI1" s="1"/>
-      <c r="UJ1" s="1"/>
-      <c r="UK1" s="1"/>
-      <c r="UL1" s="1"/>
-      <c r="UM1" s="1"/>
-      <c r="UN1" s="1"/>
-      <c r="UO1" s="1"/>
-      <c r="UP1" s="1"/>
-      <c r="UQ1" s="1"/>
-      <c r="UR1" s="1"/>
-      <c r="US1" s="1"/>
-      <c r="UT1" s="1"/>
-      <c r="UU1" s="1"/>
-      <c r="UV1" s="1"/>
-      <c r="UW1" s="1"/>
-      <c r="UX1" s="1"/>
-      <c r="UY1" s="1"/>
-      <c r="UZ1" s="1"/>
-      <c r="VA1" s="1"/>
-      <c r="VB1" s="1"/>
-      <c r="VC1" s="1"/>
-      <c r="VD1" s="1"/>
-      <c r="VE1" s="1"/>
-      <c r="VF1" s="1"/>
-      <c r="VG1" s="1"/>
-      <c r="VH1" s="1"/>
-      <c r="VI1" s="1"/>
-      <c r="VJ1" s="1"/>
-      <c r="VK1" s="1"/>
-      <c r="VL1" s="1"/>
-      <c r="VM1" s="1"/>
-      <c r="VN1" s="1"/>
-      <c r="VO1" s="1"/>
-      <c r="VP1" s="1"/>
-      <c r="VQ1" s="1"/>
-      <c r="VR1" s="1"/>
-      <c r="VS1" s="1"/>
-      <c r="VT1" s="1"/>
-      <c r="VU1" s="1"/>
-      <c r="VV1" s="1"/>
-      <c r="VW1" s="1"/>
-      <c r="VX1" s="1"/>
-      <c r="VY1" s="1"/>
-      <c r="VZ1" s="1"/>
-      <c r="WA1" s="1"/>
-      <c r="WB1" s="1"/>
-      <c r="WC1" s="1"/>
-      <c r="WD1" s="1"/>
-      <c r="WE1" s="1"/>
-      <c r="WF1" s="1"/>
-      <c r="WG1" s="1"/>
-      <c r="WH1" s="1"/>
-      <c r="WI1" s="1"/>
-      <c r="WJ1" s="1"/>
-      <c r="WK1" s="1"/>
-      <c r="WL1" s="1"/>
-      <c r="WM1" s="1"/>
-      <c r="WN1" s="1"/>
-      <c r="WO1" s="1"/>
-      <c r="WP1" s="1"/>
-      <c r="WQ1" s="1"/>
-      <c r="WR1" s="1"/>
-      <c r="WS1" s="1"/>
-      <c r="WT1" s="1"/>
-      <c r="WU1" s="1"/>
-      <c r="WV1" s="1"/>
-      <c r="WW1" s="1"/>
-      <c r="WX1" s="1"/>
-      <c r="WY1" s="1"/>
-      <c r="WZ1" s="1"/>
-      <c r="XA1" s="1"/>
-      <c r="XB1" s="1"/>
-      <c r="XC1" s="1"/>
-      <c r="XD1" s="1"/>
-      <c r="XE1" s="1"/>
-      <c r="XF1" s="1"/>
-      <c r="XG1" s="1"/>
-      <c r="XH1" s="1"/>
-      <c r="XI1" s="1"/>
-      <c r="XJ1" s="1"/>
-      <c r="XK1" s="1"/>
-      <c r="XL1" s="1"/>
-      <c r="XM1" s="1"/>
-      <c r="XN1" s="1"/>
-      <c r="XO1" s="1"/>
-      <c r="XP1" s="1"/>
-      <c r="XQ1" s="1"/>
-      <c r="XR1" s="1"/>
-      <c r="XS1" s="1"/>
-      <c r="XT1" s="1"/>
-      <c r="XU1" s="1"/>
-      <c r="XV1" s="1"/>
-      <c r="XW1" s="1"/>
-      <c r="XX1" s="1"/>
-      <c r="XY1" s="1"/>
-      <c r="XZ1" s="1"/>
-      <c r="YA1" s="1"/>
-      <c r="YB1" s="1"/>
-      <c r="YC1" s="1"/>
-      <c r="YD1" s="1"/>
-      <c r="YE1" s="1"/>
-      <c r="YF1" s="1"/>
-      <c r="YG1" s="1"/>
-      <c r="YH1" s="1"/>
-      <c r="YI1" s="1"/>
-      <c r="YJ1" s="1"/>
-      <c r="YK1" s="1"/>
-      <c r="YL1" s="1"/>
-      <c r="YM1" s="1"/>
-      <c r="YN1" s="1"/>
-      <c r="YO1" s="1"/>
-      <c r="YP1" s="1"/>
-      <c r="YQ1" s="1"/>
-      <c r="YR1" s="1"/>
-      <c r="YS1" s="1"/>
-      <c r="YT1" s="1"/>
-      <c r="YU1" s="1"/>
-      <c r="YV1" s="1"/>
-      <c r="YW1" s="1"/>
-      <c r="YX1" s="1"/>
-      <c r="YY1" s="1"/>
-      <c r="YZ1" s="1"/>
-      <c r="ZA1" s="1"/>
-      <c r="ZB1" s="1"/>
-      <c r="ZC1" s="1"/>
-      <c r="ZD1" s="1"/>
-      <c r="ZE1" s="1"/>
-      <c r="ZF1" s="1"/>
-      <c r="ZG1" s="1"/>
-      <c r="ZH1" s="1"/>
-      <c r="ZI1" s="1"/>
-      <c r="ZJ1" s="1"/>
-      <c r="ZK1" s="1"/>
-      <c r="ZL1" s="1"/>
-      <c r="ZM1" s="1"/>
-      <c r="ZN1" s="1"/>
-      <c r="ZO1" s="1"/>
-      <c r="ZP1" s="1"/>
-      <c r="ZQ1" s="1"/>
-      <c r="ZR1" s="1"/>
-      <c r="ZS1" s="1"/>
-      <c r="ZT1" s="1"/>
-      <c r="ZU1" s="1"/>
-      <c r="ZV1" s="1"/>
-      <c r="ZW1" s="1"/>
-      <c r="ZX1" s="1"/>
-      <c r="ZY1" s="1"/>
-      <c r="ZZ1" s="1"/>
-      <c r="AAA1" s="1"/>
-      <c r="AAB1" s="1"/>
-      <c r="AAC1" s="1"/>
-      <c r="AAD1" s="1"/>
-      <c r="AAE1" s="1"/>
-      <c r="AAF1" s="1"/>
-      <c r="AAG1" s="1"/>
-      <c r="AAH1" s="1"/>
-      <c r="AAI1" s="1"/>
-      <c r="AAJ1" s="1"/>
-      <c r="AAK1" s="1"/>
-      <c r="AAL1" s="1"/>
-      <c r="AAM1" s="1"/>
-      <c r="AAN1" s="1"/>
-      <c r="AAO1" s="1"/>
-      <c r="AAP1" s="1"/>
-      <c r="AAQ1" s="1"/>
-      <c r="AAR1" s="1"/>
-      <c r="AAS1" s="1"/>
-      <c r="AAT1" s="1"/>
-      <c r="AAU1" s="1"/>
-      <c r="AAV1" s="1"/>
-      <c r="AAW1" s="1"/>
-      <c r="AAX1" s="1"/>
-      <c r="AAY1" s="1"/>
-      <c r="AAZ1" s="1"/>
-      <c r="ABA1" s="1"/>
-      <c r="ABB1" s="1"/>
-      <c r="ABC1" s="1"/>
-      <c r="ABD1" s="1"/>
-      <c r="ABE1" s="1"/>
-      <c r="ABF1" s="1"/>
-      <c r="ABG1" s="1"/>
-      <c r="ABH1" s="1"/>
-      <c r="ABI1" s="1"/>
-      <c r="ABJ1" s="1"/>
-      <c r="ABK1" s="1"/>
-      <c r="ABL1" s="1"/>
-      <c r="ABM1" s="1"/>
-      <c r="ABN1" s="1"/>
-      <c r="ABO1" s="1"/>
-      <c r="ABP1" s="1"/>
-      <c r="ABQ1" s="1"/>
-      <c r="ABR1" s="1"/>
-      <c r="ABS1" s="1"/>
-      <c r="ABT1" s="1"/>
-      <c r="ABU1" s="1"/>
-      <c r="ABV1" s="1"/>
-      <c r="ABW1" s="1"/>
-      <c r="ABX1" s="1"/>
-      <c r="ABY1" s="1"/>
-      <c r="ABZ1" s="1"/>
-      <c r="ACA1" s="1"/>
-      <c r="ACB1" s="1"/>
-      <c r="ACC1" s="1"/>
-      <c r="ACD1" s="1"/>
-      <c r="ACE1" s="1"/>
-      <c r="ACF1" s="1"/>
-      <c r="ACG1" s="1"/>
-      <c r="ACH1" s="1"/>
-      <c r="ACI1" s="1"/>
-      <c r="ACJ1" s="1"/>
-      <c r="ACK1" s="1"/>
-      <c r="ACL1" s="1"/>
-      <c r="ACM1" s="1"/>
-      <c r="ACN1" s="1"/>
-      <c r="ACO1" s="1"/>
-      <c r="ACP1" s="1"/>
-      <c r="ACQ1" s="1"/>
-      <c r="ACR1" s="1"/>
-      <c r="ACS1" s="1"/>
-      <c r="ACT1" s="1"/>
-      <c r="ACU1" s="1"/>
-      <c r="ACV1" s="1"/>
-      <c r="ACW1" s="1"/>
-      <c r="ACX1" s="1"/>
-      <c r="ACY1" s="1"/>
-      <c r="ACZ1" s="1"/>
-      <c r="ADA1" s="1"/>
-      <c r="ADB1" s="1"/>
-      <c r="ADC1" s="1"/>
-      <c r="ADD1" s="1"/>
-      <c r="ADE1" s="1"/>
-      <c r="ADF1" s="1"/>
-      <c r="ADG1" s="1"/>
-      <c r="ADH1" s="1"/>
-      <c r="ADI1" s="1"/>
-      <c r="ADJ1" s="1"/>
-      <c r="ADK1" s="1"/>
-      <c r="ADL1" s="1"/>
-      <c r="ADM1" s="1"/>
-      <c r="ADN1" s="1"/>
-      <c r="ADO1" s="1"/>
-      <c r="ADP1" s="1"/>
-      <c r="ADQ1" s="1"/>
-      <c r="ADR1" s="1"/>
-      <c r="ADS1" s="1"/>
-      <c r="ADT1" s="1"/>
-      <c r="ADU1" s="1"/>
-      <c r="ADV1" s="1"/>
-      <c r="ADW1" s="1"/>
-      <c r="ADX1" s="1"/>
-      <c r="ADY1" s="1"/>
-      <c r="ADZ1" s="1"/>
-      <c r="AEA1" s="1"/>
-      <c r="AEB1" s="1"/>
-      <c r="AEC1" s="1"/>
-      <c r="AED1" s="1"/>
-      <c r="AEE1" s="1"/>
-      <c r="AEF1" s="1"/>
-      <c r="AEG1" s="1"/>
-      <c r="AEH1" s="1"/>
-      <c r="AEI1" s="1"/>
-      <c r="AEJ1" s="1"/>
-      <c r="AEK1" s="1"/>
-      <c r="AEL1" s="1"/>
-      <c r="AEM1" s="1"/>
-      <c r="AEN1" s="1"/>
-      <c r="AEO1" s="1"/>
-      <c r="AEP1" s="1"/>
-      <c r="AEQ1" s="1"/>
-      <c r="AER1" s="1"/>
-      <c r="AES1" s="1"/>
-      <c r="AET1" s="1"/>
-      <c r="AEU1" s="1"/>
-      <c r="AEV1" s="1"/>
-      <c r="AEW1" s="1"/>
-      <c r="AEX1" s="1"/>
-      <c r="AEY1" s="1"/>
-      <c r="AEZ1" s="1"/>
-      <c r="AFA1" s="1"/>
-      <c r="AFB1" s="1"/>
-      <c r="AFC1" s="1"/>
-      <c r="AFD1" s="1"/>
-      <c r="AFE1" s="1"/>
-      <c r="AFF1" s="1"/>
-      <c r="AFG1" s="1"/>
-      <c r="AFH1" s="1"/>
-      <c r="AFI1" s="1"/>
-      <c r="AFJ1" s="1"/>
-      <c r="AFK1" s="1"/>
-      <c r="AFL1" s="1"/>
-      <c r="AFM1" s="1"/>
-      <c r="AFN1" s="1"/>
-      <c r="AFO1" s="1"/>
-      <c r="AFP1" s="1"/>
-      <c r="AFQ1" s="1"/>
-      <c r="AFR1" s="1"/>
-      <c r="AFS1" s="1"/>
-      <c r="AFT1" s="1"/>
+      <c r="HC1" s="1">
+        <v>359</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>360</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>361</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>362</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>363</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>364</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>365</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>366</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>367</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>368</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>369</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>370</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>371</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>372</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>373</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>374</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>375</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>376</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>377</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>378</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>379</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>380</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>381</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>382</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>383</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>384</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>385</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>386</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>387</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>388</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>389</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>390</v>
+      </c>
+      <c r="II1" s="1">
+        <v>391</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>392</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>393</v>
+      </c>
+      <c r="IL1" s="1">
+        <v>394</v>
+      </c>
+      <c r="IM1" s="1">
+        <v>395</v>
+      </c>
+      <c r="IN1" s="1">
+        <v>396</v>
+      </c>
+      <c r="IO1" s="1">
+        <v>397</v>
+      </c>
+      <c r="IP1" s="1">
+        <v>398</v>
+      </c>
+      <c r="IQ1" s="1">
+        <v>399</v>
+      </c>
+      <c r="IR1" s="1">
+        <v>400</v>
+      </c>
+      <c r="IS1" s="1">
+        <v>401</v>
+      </c>
+      <c r="IT1" s="1">
+        <v>402</v>
+      </c>
+      <c r="IU1" s="1">
+        <v>403</v>
+      </c>
+      <c r="IV1" s="1">
+        <v>404</v>
+      </c>
+      <c r="IW1" s="1">
+        <v>405</v>
+      </c>
+      <c r="IX1" s="1">
+        <v>406</v>
+      </c>
+      <c r="IY1" s="1">
+        <v>407</v>
+      </c>
+      <c r="IZ1" s="1">
+        <v>408</v>
+      </c>
+      <c r="JA1" s="1">
+        <v>409</v>
+      </c>
+      <c r="JB1" s="1">
+        <v>410</v>
+      </c>
+      <c r="JC1" s="1">
+        <v>411</v>
+      </c>
+      <c r="JD1" s="1">
+        <v>412</v>
+      </c>
+      <c r="JE1" s="1">
+        <v>413</v>
+      </c>
+      <c r="JF1" s="1">
+        <v>414</v>
+      </c>
+      <c r="JG1" s="1">
+        <v>415</v>
+      </c>
+      <c r="JH1" s="1">
+        <v>416</v>
+      </c>
+      <c r="JI1" s="1">
+        <v>417</v>
+      </c>
+      <c r="JJ1" s="1">
+        <v>418</v>
+      </c>
+      <c r="JK1" s="1">
+        <v>419</v>
+      </c>
+      <c r="JL1" s="1">
+        <v>420</v>
+      </c>
+      <c r="JM1" s="1">
+        <v>421</v>
+      </c>
+      <c r="JN1" s="1">
+        <v>422</v>
+      </c>
+      <c r="JO1" s="1">
+        <v>423</v>
+      </c>
+      <c r="JP1" s="1">
+        <v>424</v>
+      </c>
+      <c r="JQ1" s="1">
+        <v>425</v>
+      </c>
+      <c r="JR1" s="1">
+        <v>426</v>
+      </c>
+      <c r="JS1" s="1">
+        <v>427</v>
+      </c>
+      <c r="JT1" s="1">
+        <v>428</v>
+      </c>
+      <c r="JU1" s="1">
+        <v>429</v>
+      </c>
+      <c r="JV1" s="1">
+        <v>430</v>
+      </c>
+      <c r="JW1" s="1">
+        <v>431</v>
+      </c>
+      <c r="JX1" s="1">
+        <v>432</v>
+      </c>
+      <c r="JY1" s="1">
+        <v>433</v>
+      </c>
+      <c r="JZ1" s="1">
+        <v>434</v>
+      </c>
+      <c r="KA1" s="1">
+        <v>435</v>
+      </c>
+      <c r="KB1" s="1">
+        <v>436</v>
+      </c>
+      <c r="KC1" s="1">
+        <v>437</v>
+      </c>
+      <c r="KD1" s="1">
+        <v>438</v>
+      </c>
+      <c r="KE1" s="1">
+        <v>439</v>
+      </c>
+      <c r="KF1" s="1">
+        <v>440</v>
+      </c>
+      <c r="KG1" s="1">
+        <v>441</v>
+      </c>
+      <c r="KH1" s="1">
+        <v>442</v>
+      </c>
+      <c r="KI1" s="1">
+        <v>443</v>
+      </c>
+      <c r="KJ1" s="1">
+        <v>444</v>
+      </c>
+      <c r="KK1" s="1">
+        <v>445</v>
+      </c>
+      <c r="KL1" s="1">
+        <v>446</v>
+      </c>
+      <c r="KM1" s="1">
+        <v>447</v>
+      </c>
+      <c r="KN1" s="1">
+        <v>448</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>449</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>450</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>451</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>452</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>453</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>454</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>455</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>456</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>457</v>
+      </c>
+      <c r="KX1" s="1">
+        <v>458</v>
+      </c>
+      <c r="KY1" s="1">
+        <v>459</v>
+      </c>
+      <c r="KZ1" s="1">
+        <v>460</v>
+      </c>
+      <c r="LA1" s="1">
+        <v>461</v>
+      </c>
+      <c r="LB1" s="1">
+        <v>462</v>
+      </c>
+      <c r="LC1" s="1">
+        <v>463</v>
+      </c>
+      <c r="LD1" s="1">
+        <v>464</v>
+      </c>
+      <c r="LE1" s="1">
+        <v>465</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>466</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>467</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>468</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>469</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>470</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>471</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>472</v>
+      </c>
+      <c r="LM1" s="1">
+        <v>473</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>474</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>475</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>476</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>477</v>
+      </c>
+      <c r="LR1" s="1">
+        <v>478</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>479</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>480</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>481</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>482</v>
+      </c>
+      <c r="LW1" s="1">
+        <v>483</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>484</v>
+      </c>
+      <c r="LY1" s="1">
+        <v>485</v>
+      </c>
+      <c r="LZ1" s="1">
+        <v>486</v>
+      </c>
+      <c r="MA1" s="1">
+        <v>487</v>
+      </c>
+      <c r="MB1" s="1">
+        <v>488</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>489</v>
+      </c>
+      <c r="MD1" s="1">
+        <v>490</v>
+      </c>
+      <c r="ME1" s="1">
+        <v>491</v>
+      </c>
+      <c r="MF1" s="1">
+        <v>492</v>
+      </c>
+      <c r="MG1" s="1">
+        <v>493</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>494</v>
+      </c>
+      <c r="MI1" s="1">
+        <v>495</v>
+      </c>
+      <c r="MJ1" s="1">
+        <v>496</v>
+      </c>
+      <c r="MK1" s="1">
+        <v>497</v>
+      </c>
+      <c r="ML1" s="1">
+        <v>498</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>499</v>
+      </c>
+      <c r="MN1" s="1">
+        <v>500</v>
+      </c>
+      <c r="MO1" s="1">
+        <v>501</v>
+      </c>
+      <c r="MP1" s="1">
+        <v>502</v>
+      </c>
+      <c r="MQ1" s="1">
+        <v>503</v>
+      </c>
+      <c r="MR1" s="1">
+        <v>504</v>
+      </c>
+      <c r="MS1" s="1">
+        <v>505</v>
+      </c>
+      <c r="MT1" s="1">
+        <v>506</v>
+      </c>
+      <c r="MU1" s="1">
+        <v>507</v>
+      </c>
+      <c r="MV1" s="1">
+        <v>508</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>509</v>
+      </c>
+      <c r="MX1" s="1">
+        <v>510</v>
+      </c>
+      <c r="MY1" s="1">
+        <v>511</v>
+      </c>
+      <c r="MZ1" s="1">
+        <v>512</v>
+      </c>
+      <c r="NA1" s="1">
+        <v>513</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>514</v>
+      </c>
+      <c r="NC1" s="1">
+        <v>515</v>
+      </c>
+      <c r="ND1" s="1">
+        <v>516</v>
+      </c>
+      <c r="NE1" s="1">
+        <v>517</v>
+      </c>
+      <c r="NF1" s="1">
+        <v>518</v>
+      </c>
+      <c r="NG1" s="1">
+        <v>519</v>
+      </c>
+      <c r="NH1" s="1">
+        <v>520</v>
+      </c>
+      <c r="NI1" s="1">
+        <v>521</v>
+      </c>
+      <c r="NJ1" s="1">
+        <v>522</v>
+      </c>
+      <c r="NK1" s="1">
+        <v>523</v>
+      </c>
+      <c r="NL1" s="1">
+        <v>524</v>
+      </c>
+      <c r="NM1" s="1">
+        <v>525</v>
+      </c>
+      <c r="NN1" s="1">
+        <v>526</v>
+      </c>
+      <c r="NO1" s="1">
+        <v>527</v>
+      </c>
+      <c r="NP1" s="1">
+        <v>528</v>
+      </c>
+      <c r="NQ1" s="1">
+        <v>529</v>
+      </c>
+      <c r="NR1" s="1">
+        <v>530</v>
+      </c>
+      <c r="NS1" s="1">
+        <v>531</v>
+      </c>
+      <c r="NT1" s="1">
+        <v>532</v>
+      </c>
+      <c r="NU1" s="1">
+        <v>533</v>
+      </c>
+      <c r="NV1" s="1">
+        <v>534</v>
+      </c>
+      <c r="NW1" s="1">
+        <v>535</v>
+      </c>
+      <c r="NX1" s="1">
+        <v>536</v>
+      </c>
+      <c r="NY1" s="1">
+        <v>537</v>
+      </c>
+      <c r="NZ1" s="1">
+        <v>538</v>
+      </c>
+      <c r="OA1" s="1">
+        <v>539</v>
+      </c>
+      <c r="OB1" s="1">
+        <v>540</v>
+      </c>
+      <c r="OC1" s="1">
+        <v>541</v>
+      </c>
+      <c r="OD1" s="1">
+        <v>542</v>
+      </c>
+      <c r="OE1" s="1">
+        <v>543</v>
+      </c>
+      <c r="OF1" s="1">
+        <v>544</v>
+      </c>
+      <c r="OG1" s="1">
+        <v>545</v>
+      </c>
+      <c r="OH1" s="1">
+        <v>546</v>
+      </c>
+      <c r="OI1" s="1">
+        <v>547</v>
+      </c>
+      <c r="OJ1" s="1">
+        <v>548</v>
+      </c>
+      <c r="OK1" s="1">
+        <v>549</v>
+      </c>
+      <c r="OL1" s="1">
+        <v>550</v>
+      </c>
+      <c r="OM1" s="1">
+        <v>551</v>
+      </c>
+      <c r="ON1" s="1">
+        <v>552</v>
+      </c>
+      <c r="OO1" s="1">
+        <v>553</v>
+      </c>
+      <c r="OP1" s="1">
+        <v>554</v>
+      </c>
+      <c r="OQ1" s="1">
+        <v>555</v>
+      </c>
+      <c r="OR1" s="1">
+        <v>556</v>
+      </c>
+      <c r="OS1" s="1">
+        <v>557</v>
+      </c>
+      <c r="OT1" s="1">
+        <v>558</v>
+      </c>
+      <c r="OU1" s="1">
+        <v>559</v>
+      </c>
+      <c r="OV1" s="1">
+        <v>560</v>
+      </c>
+      <c r="OW1" s="1">
+        <v>561</v>
+      </c>
+      <c r="OX1" s="1">
+        <v>562</v>
+      </c>
+      <c r="OY1" s="1">
+        <v>563</v>
+      </c>
+      <c r="OZ1" s="1">
+        <v>564</v>
+      </c>
+      <c r="PA1" s="1">
+        <v>565</v>
+      </c>
+      <c r="PB1" s="1">
+        <v>566</v>
+      </c>
+      <c r="PC1" s="1">
+        <v>567</v>
+      </c>
+      <c r="PD1" s="1">
+        <v>568</v>
+      </c>
+      <c r="PE1" s="1">
+        <v>569</v>
+      </c>
+      <c r="PF1" s="1">
+        <v>570</v>
+      </c>
+      <c r="PG1" s="1">
+        <v>571</v>
+      </c>
+      <c r="PH1" s="1">
+        <v>572</v>
+      </c>
+      <c r="PI1" s="1">
+        <v>573</v>
+      </c>
+      <c r="PJ1" s="1">
+        <v>574</v>
+      </c>
+      <c r="PK1" s="1">
+        <v>575</v>
+      </c>
+      <c r="PL1" s="1">
+        <v>576</v>
+      </c>
+      <c r="PM1" s="1">
+        <v>577</v>
+      </c>
+      <c r="PN1" s="1">
+        <v>578</v>
+      </c>
+      <c r="PO1" s="1">
+        <v>579</v>
+      </c>
+      <c r="PP1" s="1">
+        <v>580</v>
+      </c>
+      <c r="PQ1" s="1">
+        <v>581</v>
+      </c>
+      <c r="PR1" s="1">
+        <v>582</v>
+      </c>
+      <c r="PS1" s="1">
+        <v>583</v>
+      </c>
+      <c r="PT1" s="1">
+        <v>584</v>
+      </c>
+      <c r="PU1" s="1">
+        <v>585</v>
+      </c>
+      <c r="PV1" s="1">
+        <v>586</v>
+      </c>
+      <c r="PW1" s="1">
+        <v>587</v>
+      </c>
+      <c r="PX1" s="1">
+        <v>588</v>
+      </c>
+      <c r="PY1" s="1">
+        <v>589</v>
+      </c>
+      <c r="PZ1" s="1">
+        <v>590</v>
+      </c>
+      <c r="QA1" s="1">
+        <v>591</v>
+      </c>
+      <c r="QB1" s="1">
+        <v>592</v>
+      </c>
+      <c r="QC1" s="1">
+        <v>593</v>
+      </c>
+      <c r="QD1" s="1">
+        <v>594</v>
+      </c>
+      <c r="QE1" s="1">
+        <v>595</v>
+      </c>
+      <c r="QF1" s="1">
+        <v>596</v>
+      </c>
+      <c r="QG1" s="1">
+        <v>597</v>
+      </c>
+      <c r="QH1" s="1">
+        <v>598</v>
+      </c>
+      <c r="QI1" s="1">
+        <v>599</v>
+      </c>
+      <c r="QJ1" s="1">
+        <v>600</v>
+      </c>
+      <c r="QK1" s="1">
+        <v>601</v>
+      </c>
+      <c r="QL1" s="1">
+        <v>602</v>
+      </c>
+      <c r="QM1" s="1">
+        <v>603</v>
+      </c>
+      <c r="QN1" s="1">
+        <v>604</v>
+      </c>
+      <c r="QO1" s="1">
+        <v>605</v>
+      </c>
+      <c r="QP1" s="1">
+        <v>606</v>
+      </c>
+      <c r="QQ1" s="1">
+        <v>607</v>
+      </c>
+      <c r="QR1" s="1">
+        <v>608</v>
+      </c>
+      <c r="QS1" s="1">
+        <v>609</v>
+      </c>
+      <c r="QT1" s="1">
+        <v>610</v>
+      </c>
+      <c r="QU1" s="1">
+        <v>611</v>
+      </c>
+      <c r="QV1" s="1">
+        <v>612</v>
+      </c>
+      <c r="QW1" s="1">
+        <v>613</v>
+      </c>
+      <c r="QX1" s="1">
+        <v>614</v>
+      </c>
+      <c r="QY1" s="1">
+        <v>615</v>
+      </c>
+      <c r="QZ1" s="1">
+        <v>616</v>
+      </c>
+      <c r="RA1" s="1">
+        <v>617</v>
+      </c>
+      <c r="RB1" s="1">
+        <v>618</v>
+      </c>
+      <c r="RC1" s="1">
+        <v>619</v>
+      </c>
+      <c r="RD1" s="1">
+        <v>620</v>
+      </c>
+      <c r="RE1" s="1">
+        <v>621</v>
+      </c>
+      <c r="RF1" s="1">
+        <v>622</v>
+      </c>
+      <c r="RG1" s="1">
+        <v>623</v>
+      </c>
+      <c r="RH1" s="1">
+        <v>624</v>
+      </c>
+      <c r="RI1" s="1">
+        <v>625</v>
+      </c>
+      <c r="RJ1" s="1">
+        <v>626</v>
+      </c>
+      <c r="RK1" s="1">
+        <v>627</v>
+      </c>
+      <c r="RL1" s="1">
+        <v>628</v>
+      </c>
+      <c r="RM1" s="1">
+        <v>629</v>
+      </c>
+      <c r="RN1" s="1">
+        <v>630</v>
+      </c>
+      <c r="RO1" s="1">
+        <v>631</v>
+      </c>
+      <c r="RP1" s="1">
+        <v>632</v>
+      </c>
+      <c r="RQ1" s="1">
+        <v>633</v>
+      </c>
+      <c r="RR1" s="1">
+        <v>634</v>
+      </c>
+      <c r="RS1" s="1">
+        <v>635</v>
+      </c>
+      <c r="RT1" s="1">
+        <v>636</v>
+      </c>
+      <c r="RU1" s="1">
+        <v>637</v>
+      </c>
+      <c r="RV1" s="1">
+        <v>638</v>
+      </c>
+      <c r="RW1" s="1">
+        <v>639</v>
+      </c>
+      <c r="RX1" s="1">
+        <v>640</v>
+      </c>
+      <c r="RY1" s="1">
+        <v>641</v>
+      </c>
+      <c r="RZ1" s="1">
+        <v>642</v>
+      </c>
+      <c r="SA1" s="1">
+        <v>643</v>
+      </c>
+      <c r="SB1" s="1">
+        <v>644</v>
+      </c>
+      <c r="SC1" s="1">
+        <v>645</v>
+      </c>
+      <c r="SD1" s="1">
+        <v>646</v>
+      </c>
+      <c r="SE1" s="1">
+        <v>647</v>
+      </c>
+      <c r="SF1" s="1">
+        <v>648</v>
+      </c>
+      <c r="SG1" s="1">
+        <v>649</v>
+      </c>
+      <c r="SH1" s="1">
+        <v>650</v>
+      </c>
+      <c r="SI1" s="1">
+        <v>651</v>
+      </c>
+      <c r="SJ1" s="1">
+        <v>652</v>
+      </c>
+      <c r="SK1" s="1">
+        <v>653</v>
+      </c>
+      <c r="SL1" s="1">
+        <v>654</v>
+      </c>
+      <c r="SM1" s="1">
+        <v>655</v>
+      </c>
+      <c r="SN1" s="1">
+        <v>656</v>
+      </c>
+      <c r="SO1" s="1">
+        <v>657</v>
+      </c>
+      <c r="SP1" s="1">
+        <v>658</v>
+      </c>
+      <c r="SQ1" s="1">
+        <v>659</v>
+      </c>
+      <c r="SR1" s="1">
+        <v>660</v>
+      </c>
+      <c r="SS1" s="1">
+        <v>661</v>
+      </c>
+      <c r="ST1" s="1">
+        <v>662</v>
+      </c>
+      <c r="SU1" s="1">
+        <v>663</v>
+      </c>
+      <c r="SV1" s="1">
+        <v>664</v>
+      </c>
+      <c r="SW1" s="1">
+        <v>665</v>
+      </c>
+      <c r="SX1" s="1">
+        <v>666</v>
+      </c>
+      <c r="SY1" s="1">
+        <v>667</v>
+      </c>
+      <c r="SZ1" s="1">
+        <v>668</v>
+      </c>
+      <c r="TA1" s="1">
+        <v>669</v>
+      </c>
+      <c r="TB1" s="1">
+        <v>670</v>
+      </c>
+      <c r="TC1" s="1">
+        <v>671</v>
+      </c>
+      <c r="TD1" s="1">
+        <v>672</v>
+      </c>
+      <c r="TE1" s="1">
+        <v>673</v>
+      </c>
+      <c r="TF1" s="1">
+        <v>674</v>
+      </c>
+      <c r="TG1" s="1">
+        <v>675</v>
+      </c>
+      <c r="TH1" s="1">
+        <v>676</v>
+      </c>
+      <c r="TI1" s="1">
+        <v>677</v>
+      </c>
+      <c r="TJ1" s="1">
+        <v>678</v>
+      </c>
+      <c r="TK1" s="1">
+        <v>679</v>
+      </c>
+      <c r="TL1" s="1">
+        <v>680</v>
+      </c>
+      <c r="TM1" s="1">
+        <v>681</v>
+      </c>
+      <c r="TN1" s="1">
+        <v>682</v>
+      </c>
+      <c r="TO1" s="1">
+        <v>683</v>
+      </c>
+      <c r="TP1" s="1">
+        <v>684</v>
+      </c>
+      <c r="TQ1" s="1">
+        <v>685</v>
+      </c>
+      <c r="TR1" s="1">
+        <v>686</v>
+      </c>
+      <c r="TS1" s="1">
+        <v>687</v>
+      </c>
+      <c r="TT1" s="1">
+        <v>688</v>
+      </c>
+      <c r="TU1" s="1">
+        <v>689</v>
+      </c>
+      <c r="TV1" s="1">
+        <v>690</v>
+      </c>
+      <c r="TW1" s="1">
+        <v>691</v>
+      </c>
+      <c r="TX1" s="1">
+        <v>692</v>
+      </c>
+      <c r="TY1" s="1">
+        <v>693</v>
+      </c>
+      <c r="TZ1" s="1">
+        <v>694</v>
+      </c>
+      <c r="UA1" s="1">
+        <v>695</v>
+      </c>
+      <c r="UB1" s="1">
+        <v>696</v>
+      </c>
+      <c r="UC1" s="1">
+        <v>697</v>
+      </c>
+      <c r="UD1" s="1">
+        <v>698</v>
+      </c>
+      <c r="UE1" s="1">
+        <v>699</v>
+      </c>
+      <c r="UF1" s="1">
+        <v>700</v>
+      </c>
+      <c r="UG1" s="1">
+        <v>701</v>
+      </c>
+      <c r="UH1" s="1">
+        <v>702</v>
+      </c>
+      <c r="UI1" s="1">
+        <v>703</v>
+      </c>
+      <c r="UJ1" s="1">
+        <v>704</v>
+      </c>
+      <c r="UK1" s="1">
+        <v>705</v>
+      </c>
+      <c r="UL1" s="1">
+        <v>706</v>
+      </c>
+      <c r="UM1" s="1">
+        <v>707</v>
+      </c>
+      <c r="UN1" s="1">
+        <v>708</v>
+      </c>
+      <c r="UO1" s="1">
+        <v>709</v>
+      </c>
+      <c r="UP1" s="1">
+        <v>710</v>
+      </c>
+      <c r="UQ1" s="1">
+        <v>711</v>
+      </c>
+      <c r="UR1" s="1">
+        <v>712</v>
+      </c>
+      <c r="US1" s="1">
+        <v>713</v>
+      </c>
+      <c r="UT1" s="1">
+        <v>714</v>
+      </c>
+      <c r="UU1" s="1">
+        <v>715</v>
+      </c>
+      <c r="UV1" s="1">
+        <v>716</v>
+      </c>
+      <c r="UW1" s="1">
+        <v>717</v>
+      </c>
+      <c r="UX1" s="1">
+        <v>718</v>
+      </c>
+      <c r="UY1" s="1">
+        <v>719</v>
+      </c>
+      <c r="UZ1" s="1">
+        <v>720</v>
+      </c>
+      <c r="VA1" s="1">
+        <v>721</v>
+      </c>
+      <c r="VB1" s="1">
+        <v>722</v>
+      </c>
+      <c r="VC1" s="1">
+        <v>723</v>
+      </c>
+      <c r="VD1" s="1">
+        <v>724</v>
+      </c>
+      <c r="VE1" s="1">
+        <v>725</v>
+      </c>
+      <c r="VF1" s="1">
+        <v>726</v>
+      </c>
+      <c r="VG1" s="1">
+        <v>727</v>
+      </c>
+      <c r="VH1" s="1">
+        <v>728</v>
+      </c>
+      <c r="VI1" s="1">
+        <v>729</v>
+      </c>
+      <c r="VJ1" s="1">
+        <v>730</v>
+      </c>
+      <c r="VK1" s="1">
+        <v>731</v>
+      </c>
+      <c r="VL1" s="1">
+        <v>732</v>
+      </c>
+      <c r="VM1" s="1">
+        <v>733</v>
+      </c>
+      <c r="VN1" s="1">
+        <v>734</v>
+      </c>
+      <c r="VO1" s="1">
+        <v>735</v>
+      </c>
+      <c r="VP1" s="1">
+        <v>736</v>
+      </c>
+      <c r="VQ1" s="1">
+        <v>737</v>
+      </c>
+      <c r="VR1" s="1">
+        <v>738</v>
+      </c>
+      <c r="VS1" s="1">
+        <v>739</v>
+      </c>
+      <c r="VT1" s="1">
+        <v>740</v>
+      </c>
+      <c r="VU1" s="1">
+        <v>741</v>
+      </c>
+      <c r="VV1" s="1">
+        <v>742</v>
+      </c>
+      <c r="VW1" s="1">
+        <v>743</v>
+      </c>
+      <c r="VX1" s="1">
+        <v>744</v>
+      </c>
+      <c r="VY1" s="1">
+        <v>745</v>
+      </c>
+      <c r="VZ1" s="1">
+        <v>746</v>
+      </c>
+      <c r="WA1" s="1">
+        <v>747</v>
+      </c>
+      <c r="WB1" s="1">
+        <v>748</v>
+      </c>
+      <c r="WC1" s="1">
+        <v>749</v>
+      </c>
+      <c r="WD1" s="1">
+        <v>750</v>
+      </c>
+      <c r="WE1" s="1">
+        <v>751</v>
+      </c>
+      <c r="WF1" s="1">
+        <v>752</v>
+      </c>
+      <c r="WG1" s="1">
+        <v>753</v>
+      </c>
+      <c r="WH1" s="1">
+        <v>754</v>
+      </c>
+      <c r="WI1" s="1">
+        <v>755</v>
+      </c>
+      <c r="WJ1" s="1">
+        <v>756</v>
+      </c>
+      <c r="WK1" s="1">
+        <v>757</v>
+      </c>
+      <c r="WL1" s="1">
+        <v>758</v>
+      </c>
+      <c r="WM1" s="1">
+        <v>759</v>
+      </c>
+      <c r="WN1" s="1">
+        <v>760</v>
+      </c>
+      <c r="WO1" s="1">
+        <v>761</v>
+      </c>
+      <c r="WP1" s="1">
+        <v>762</v>
+      </c>
+      <c r="WQ1" s="1">
+        <v>763</v>
+      </c>
+      <c r="WR1" s="1">
+        <v>764</v>
+      </c>
+      <c r="WS1" s="1">
+        <v>765</v>
+      </c>
+      <c r="WT1" s="1">
+        <v>766</v>
+      </c>
+      <c r="WU1" s="1">
+        <v>767</v>
+      </c>
+      <c r="WV1" s="1">
+        <v>768</v>
+      </c>
+      <c r="WW1" s="1">
+        <v>769</v>
+      </c>
+      <c r="WX1" s="1">
+        <v>770</v>
+      </c>
+      <c r="WY1" s="1">
+        <v>771</v>
+      </c>
+      <c r="WZ1" s="1">
+        <v>772</v>
+      </c>
+      <c r="XA1" s="1">
+        <v>773</v>
+      </c>
+      <c r="XB1" s="1">
+        <v>774</v>
+      </c>
+      <c r="XC1" s="1">
+        <v>775</v>
+      </c>
+      <c r="XD1" s="1">
+        <v>776</v>
+      </c>
+      <c r="XE1" s="1">
+        <v>777</v>
+      </c>
+      <c r="XF1" s="1">
+        <v>778</v>
+      </c>
+      <c r="XG1" s="1">
+        <v>779</v>
+      </c>
+      <c r="XH1" s="1">
+        <v>780</v>
+      </c>
+      <c r="XI1" s="1">
+        <v>781</v>
+      </c>
+      <c r="XJ1" s="1">
+        <v>782</v>
+      </c>
+      <c r="XK1" s="1">
+        <v>783</v>
+      </c>
+      <c r="XL1" s="1">
+        <v>784</v>
+      </c>
+      <c r="XM1" s="1">
+        <v>785</v>
+      </c>
+      <c r="XN1" s="1">
+        <v>786</v>
+      </c>
+      <c r="XO1" s="1">
+        <v>787</v>
+      </c>
+      <c r="XP1" s="1">
+        <v>788</v>
+      </c>
+      <c r="XQ1" s="1">
+        <v>789</v>
+      </c>
+      <c r="XR1" s="1">
+        <v>790</v>
+      </c>
+      <c r="XS1" s="1">
+        <v>791</v>
+      </c>
+      <c r="XT1" s="1">
+        <v>792</v>
+      </c>
+      <c r="XU1" s="1">
+        <v>793</v>
+      </c>
+      <c r="XV1" s="1">
+        <v>794</v>
+      </c>
+      <c r="XW1" s="1">
+        <v>795</v>
+      </c>
+      <c r="XX1" s="1">
+        <v>796</v>
+      </c>
+      <c r="XY1" s="1">
+        <v>797</v>
+      </c>
+      <c r="XZ1" s="1">
+        <v>798</v>
+      </c>
+      <c r="YA1" s="1">
+        <v>799</v>
+      </c>
+      <c r="YB1" s="1">
+        <v>800</v>
+      </c>
+      <c r="YC1" s="1">
+        <v>801</v>
+      </c>
+      <c r="YD1" s="1">
+        <v>802</v>
+      </c>
+      <c r="YE1" s="1">
+        <v>803</v>
+      </c>
+      <c r="YF1" s="1">
+        <v>804</v>
+      </c>
+      <c r="YG1" s="1">
+        <v>805</v>
+      </c>
+      <c r="YH1" s="1">
+        <v>806</v>
+      </c>
+      <c r="YI1" s="1">
+        <v>807</v>
+      </c>
+      <c r="YJ1" s="1">
+        <v>808</v>
+      </c>
+      <c r="YK1" s="1">
+        <v>809</v>
+      </c>
+      <c r="YL1" s="1">
+        <v>810</v>
+      </c>
+      <c r="YM1" s="1">
+        <v>811</v>
+      </c>
+      <c r="YN1" s="1">
+        <v>812</v>
+      </c>
+      <c r="YO1" s="1">
+        <v>813</v>
+      </c>
+      <c r="YP1" s="1">
+        <v>814</v>
+      </c>
+      <c r="YQ1" s="1">
+        <v>815</v>
+      </c>
+      <c r="YR1" s="1">
+        <v>816</v>
+      </c>
+      <c r="YS1" s="1">
+        <v>817</v>
+      </c>
+      <c r="YT1" s="1">
+        <v>818</v>
+      </c>
+      <c r="YU1" s="1">
+        <v>819</v>
+      </c>
+      <c r="YV1" s="1">
+        <v>820</v>
+      </c>
+      <c r="YW1" s="1">
+        <v>821</v>
+      </c>
+      <c r="YX1" s="1">
+        <v>822</v>
+      </c>
+      <c r="YY1" s="1">
+        <v>823</v>
+      </c>
+      <c r="YZ1" s="1">
+        <v>824</v>
+      </c>
+      <c r="ZA1" s="1">
+        <v>825</v>
+      </c>
+      <c r="ZB1" s="1">
+        <v>826</v>
+      </c>
+      <c r="ZC1" s="1">
+        <v>827</v>
+      </c>
+      <c r="ZD1" s="1">
+        <v>828</v>
+      </c>
+      <c r="ZE1" s="1">
+        <v>829</v>
+      </c>
+      <c r="ZF1" s="1">
+        <v>830</v>
+      </c>
+      <c r="ZG1" s="1">
+        <v>831</v>
+      </c>
+      <c r="ZH1" s="1">
+        <v>832</v>
+      </c>
+      <c r="ZI1" s="1">
+        <v>833</v>
+      </c>
+      <c r="ZJ1" s="1">
+        <v>834</v>
+      </c>
+      <c r="ZK1" s="1">
+        <v>835</v>
+      </c>
+      <c r="ZL1" s="1">
+        <v>836</v>
+      </c>
+      <c r="ZM1" s="1">
+        <v>837</v>
+      </c>
+      <c r="ZN1" s="1">
+        <v>838</v>
+      </c>
+      <c r="ZO1" s="1">
+        <v>839</v>
+      </c>
+      <c r="ZP1" s="1">
+        <v>840</v>
+      </c>
+      <c r="ZQ1" s="1">
+        <v>841</v>
+      </c>
+      <c r="ZR1" s="1">
+        <v>842</v>
+      </c>
+      <c r="ZS1" s="1">
+        <v>843</v>
+      </c>
+      <c r="ZT1" s="1">
+        <v>844</v>
+      </c>
+      <c r="ZU1" s="1">
+        <v>845</v>
+      </c>
+      <c r="ZV1" s="1">
+        <v>846</v>
+      </c>
+      <c r="ZW1" s="1">
+        <v>847</v>
+      </c>
+      <c r="ZX1" s="1">
+        <v>848</v>
+      </c>
+      <c r="ZY1" s="1">
+        <v>849</v>
+      </c>
+      <c r="ZZ1" s="1">
+        <v>850</v>
+      </c>
+      <c r="AAA1" s="1">
+        <v>851</v>
+      </c>
+      <c r="AAB1" s="1">
+        <v>852</v>
+      </c>
+      <c r="AAC1" s="1">
+        <v>853</v>
+      </c>
+      <c r="AAD1" s="1">
+        <v>854</v>
+      </c>
+      <c r="AAE1" s="1">
+        <v>855</v>
+      </c>
+      <c r="AAF1" s="1">
+        <v>856</v>
+      </c>
+      <c r="AAG1" s="1">
+        <v>857</v>
+      </c>
+      <c r="AAH1" s="1">
+        <v>858</v>
+      </c>
+      <c r="AAI1" s="1">
+        <v>859</v>
+      </c>
+      <c r="AAJ1" s="1">
+        <v>860</v>
+      </c>
+      <c r="AAK1" s="1">
+        <v>861</v>
+      </c>
+      <c r="AAL1" s="1">
+        <v>862</v>
+      </c>
+      <c r="AAM1" s="1">
+        <v>863</v>
+      </c>
+      <c r="AAN1" s="1">
+        <v>864</v>
+      </c>
+      <c r="AAO1" s="1">
+        <v>865</v>
+      </c>
+      <c r="AAP1" s="1">
+        <v>866</v>
+      </c>
+      <c r="AAQ1" s="1">
+        <v>867</v>
+      </c>
+      <c r="AAR1" s="1">
+        <v>868</v>
+      </c>
+      <c r="AAS1" s="1">
+        <v>869</v>
+      </c>
+      <c r="AAT1" s="1">
+        <v>870</v>
+      </c>
+      <c r="AAU1" s="1">
+        <v>871</v>
+      </c>
+      <c r="AAV1" s="1">
+        <v>872</v>
+      </c>
+      <c r="AAW1" s="1">
+        <v>873</v>
+      </c>
+      <c r="AAX1" s="1">
+        <v>874</v>
+      </c>
+      <c r="AAY1" s="1">
+        <v>875</v>
+      </c>
+      <c r="AAZ1" s="1">
+        <v>876</v>
+      </c>
+      <c r="ABA1" s="1">
+        <v>877</v>
+      </c>
+      <c r="ABB1" s="1">
+        <v>878</v>
+      </c>
+      <c r="ABC1" s="1">
+        <v>879</v>
+      </c>
+      <c r="ABD1" s="1">
+        <v>880</v>
+      </c>
+      <c r="ABE1" s="1">
+        <v>881</v>
+      </c>
+      <c r="ABF1" s="1">
+        <v>882</v>
+      </c>
+      <c r="ABG1" s="1">
+        <v>883</v>
+      </c>
+      <c r="ABH1" s="1">
+        <v>884</v>
+      </c>
+      <c r="ABI1" s="1">
+        <v>885</v>
+      </c>
+      <c r="ABJ1" s="1">
+        <v>886</v>
+      </c>
+      <c r="ABK1" s="1">
+        <v>887</v>
+      </c>
+      <c r="ABL1" s="1">
+        <v>888</v>
+      </c>
+      <c r="ABM1" s="1">
+        <v>889</v>
+      </c>
+      <c r="ABN1" s="1">
+        <v>890</v>
+      </c>
+      <c r="ABO1" s="1">
+        <v>891</v>
+      </c>
+      <c r="ABP1" s="1">
+        <v>892</v>
+      </c>
+      <c r="ABQ1" s="1">
+        <v>893</v>
+      </c>
+      <c r="ABR1" s="1">
+        <v>894</v>
+      </c>
+      <c r="ABS1" s="1">
+        <v>895</v>
+      </c>
+      <c r="ABT1" s="1">
+        <v>896</v>
+      </c>
+      <c r="ABU1" s="1">
+        <v>897</v>
+      </c>
+      <c r="ABV1" s="1">
+        <v>898</v>
+      </c>
+      <c r="ABW1" s="1">
+        <v>899</v>
+      </c>
+      <c r="ABX1" s="1">
+        <v>900</v>
+      </c>
+      <c r="ABY1" s="1">
+        <v>901</v>
+      </c>
+      <c r="ABZ1" s="1">
+        <v>902</v>
+      </c>
+      <c r="ACA1" s="1">
+        <v>903</v>
+      </c>
+      <c r="ACB1" s="1">
+        <v>904</v>
+      </c>
+      <c r="ACC1" s="1">
+        <v>905</v>
+      </c>
+      <c r="ACD1" s="1">
+        <v>906</v>
+      </c>
+      <c r="ACE1" s="1">
+        <v>907</v>
+      </c>
+      <c r="ACF1" s="1">
+        <v>908</v>
+      </c>
+      <c r="ACG1" s="1">
+        <v>909</v>
+      </c>
+      <c r="ACH1" s="1">
+        <v>910</v>
+      </c>
+      <c r="ACI1" s="1">
+        <v>911</v>
+      </c>
+      <c r="ACJ1" s="1">
+        <v>912</v>
+      </c>
+      <c r="ACK1" s="1">
+        <v>913</v>
+      </c>
+      <c r="ACL1" s="1">
+        <v>914</v>
+      </c>
+      <c r="ACM1" s="1">
+        <v>915</v>
+      </c>
+      <c r="ACN1" s="1">
+        <v>916</v>
+      </c>
+      <c r="ACO1" s="1">
+        <v>917</v>
+      </c>
+      <c r="ACP1" s="1">
+        <v>918</v>
+      </c>
+      <c r="ACQ1" s="1">
+        <v>919</v>
+      </c>
+      <c r="ACR1" s="1">
+        <v>920</v>
+      </c>
+      <c r="ACS1" s="1">
+        <v>921</v>
+      </c>
+      <c r="ACT1" s="1">
+        <v>922</v>
+      </c>
+      <c r="ACU1" s="1">
+        <v>923</v>
+      </c>
+      <c r="ACV1" s="1">
+        <v>924</v>
+      </c>
+      <c r="ACW1" s="1">
+        <v>925</v>
+      </c>
+      <c r="ACX1" s="1">
+        <v>926</v>
+      </c>
+      <c r="ACY1" s="1">
+        <v>927</v>
+      </c>
+      <c r="ACZ1" s="1">
+        <v>928</v>
+      </c>
+      <c r="ADA1" s="1">
+        <v>929</v>
+      </c>
+      <c r="ADB1" s="1">
+        <v>930</v>
+      </c>
+      <c r="ADC1" s="1">
+        <v>931</v>
+      </c>
+      <c r="ADD1" s="1">
+        <v>932</v>
+      </c>
+      <c r="ADE1" s="1">
+        <v>933</v>
+      </c>
+      <c r="ADF1" s="1">
+        <v>934</v>
+      </c>
+      <c r="ADG1" s="1">
+        <v>935</v>
+      </c>
+      <c r="ADH1" s="1">
+        <v>936</v>
+      </c>
+      <c r="ADI1" s="1">
+        <v>937</v>
+      </c>
+      <c r="ADJ1" s="1">
+        <v>938</v>
+      </c>
+      <c r="ADK1" s="1">
+        <v>939</v>
+      </c>
+      <c r="ADL1" s="1">
+        <v>940</v>
+      </c>
+      <c r="ADM1" s="1">
+        <v>941</v>
+      </c>
+      <c r="ADN1" s="1">
+        <v>942</v>
+      </c>
+      <c r="ADO1" s="1">
+        <v>943</v>
+      </c>
+      <c r="ADP1" s="1">
+        <v>944</v>
+      </c>
+      <c r="ADQ1" s="1">
+        <v>945</v>
+      </c>
+      <c r="ADR1" s="1">
+        <v>946</v>
+      </c>
+      <c r="ADS1" s="1">
+        <v>947</v>
+      </c>
+      <c r="ADT1" s="1">
+        <v>948</v>
+      </c>
+      <c r="ADU1" s="1">
+        <v>949</v>
+      </c>
+      <c r="ADV1" s="1">
+        <v>950</v>
+      </c>
+      <c r="ADW1" s="1">
+        <v>951</v>
+      </c>
+      <c r="ADX1" s="1">
+        <v>952</v>
+      </c>
+      <c r="ADY1" s="1">
+        <v>953</v>
+      </c>
+      <c r="ADZ1" s="1">
+        <v>954</v>
+      </c>
+      <c r="AEA1" s="1">
+        <v>955</v>
+      </c>
+      <c r="AEB1" s="1">
+        <v>956</v>
+      </c>
+      <c r="AEC1" s="1">
+        <v>957</v>
+      </c>
+      <c r="AED1" s="1">
+        <v>958</v>
+      </c>
+      <c r="AEE1" s="1">
+        <v>959</v>
+      </c>
+      <c r="AEF1" s="1">
+        <v>960</v>
+      </c>
+      <c r="AEG1" s="1">
+        <v>961</v>
+      </c>
+      <c r="AEH1" s="1">
+        <v>962</v>
+      </c>
+      <c r="AEI1" s="1">
+        <v>963</v>
+      </c>
+      <c r="AEJ1" s="1">
+        <v>964</v>
+      </c>
+      <c r="AEK1" s="1">
+        <v>965</v>
+      </c>
+      <c r="AEL1" s="1">
+        <v>966</v>
+      </c>
+      <c r="AEM1" s="1">
+        <v>967</v>
+      </c>
+      <c r="AEN1" s="1">
+        <v>968</v>
+      </c>
+      <c r="AEO1" s="1">
+        <v>969</v>
+      </c>
+      <c r="AEP1" s="1">
+        <v>970</v>
+      </c>
+      <c r="AEQ1" s="1">
+        <v>971</v>
+      </c>
+      <c r="AER1" s="1">
+        <v>972</v>
+      </c>
+      <c r="AES1" s="1">
+        <v>973</v>
+      </c>
+      <c r="AET1" s="1">
+        <v>974</v>
+      </c>
+      <c r="AEU1" s="1">
+        <v>975</v>
+      </c>
+      <c r="AEV1" s="1">
+        <v>976</v>
+      </c>
+      <c r="AEW1" s="1">
+        <v>977</v>
+      </c>
+      <c r="AEX1" s="1">
+        <v>978</v>
+      </c>
+      <c r="AEY1" s="1">
+        <v>979</v>
+      </c>
+      <c r="AEZ1" s="1">
+        <v>980</v>
+      </c>
+      <c r="AFA1" s="1">
+        <v>981</v>
+      </c>
+      <c r="AFB1" s="1">
+        <v>982</v>
+      </c>
+      <c r="AFC1" s="1">
+        <v>983</v>
+      </c>
+      <c r="AFD1" s="1">
+        <v>984</v>
+      </c>
+      <c r="AFE1" s="1">
+        <v>985</v>
+      </c>
+      <c r="AFF1" s="1">
+        <v>986</v>
+      </c>
+      <c r="AFG1" s="1">
+        <v>987</v>
+      </c>
+      <c r="AFH1" s="1">
+        <v>988</v>
+      </c>
+      <c r="AFI1" s="1">
+        <v>989</v>
+      </c>
+      <c r="AFJ1" s="1">
+        <v>990</v>
+      </c>
+      <c r="AFK1" s="1">
+        <v>991</v>
+      </c>
+      <c r="AFL1" s="1">
+        <v>992</v>
+      </c>
+      <c r="AFM1" s="1">
+        <v>993</v>
+      </c>
+      <c r="AFN1" s="1">
+        <v>994</v>
+      </c>
+      <c r="AFO1" s="1">
+        <v>995</v>
+      </c>
+      <c r="AFP1" s="1">
+        <v>996</v>
+      </c>
+      <c r="AFQ1" s="1">
+        <v>997</v>
+      </c>
+      <c r="AFR1" s="1">
+        <v>998</v>
+      </c>
+      <c r="AFS1" s="1">
+        <v>999</v>
+      </c>
+      <c r="AFT1" s="1">
+        <v>1000</v>
+      </c>
       <c r="AFU1" s="1"/>
       <c r="AFV1" s="1"/>
       <c r="AFW1" s="1"/>
@@ -2554,968 +4152,2562 @@
       <c r="BZT1" s="1"/>
     </row>
     <row r="2" spans="1:2048" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="1">
         <v>7.8</v>
       </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="CX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="1">
         <v>15.05</v>
       </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
+      <c r="CZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="1">
         <v>29.61</v>
       </c>
-      <c r="W2" s="2">
+      <c r="DO2" s="1">
         <v>5.91</v>
       </c>
-      <c r="X2" s="2">
+      <c r="DP2" s="1">
         <v>100</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="DQ2" s="1">
         <v>19.239999999999998</v>
       </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
+      <c r="DR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="1">
         <v>14.75</v>
       </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2">
+      <c r="EE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="1">
         <v>9.7200000000000006</v>
       </c>
-      <c r="AK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2">
+      <c r="EU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="1">
         <v>6.63</v>
       </c>
-      <c r="AM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2">
+      <c r="EW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="1">
         <v>5.57</v>
       </c>
-      <c r="AP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2">
+      <c r="FI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="1">
         <v>23.92</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="FY2" s="1">
         <v>7.23</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="FZ2" s="1">
         <v>48.27</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="GA2" s="1">
         <v>10.43</v>
       </c>
-      <c r="AY2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="2">
+      <c r="GB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GL2" s="1">
         <v>5.12</v>
       </c>
-      <c r="BA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1"/>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
-      <c r="DE2" s="1"/>
-      <c r="DF2" s="1"/>
-      <c r="DG2" s="1"/>
-      <c r="DH2" s="1"/>
-      <c r="DI2" s="1"/>
-      <c r="DJ2" s="1"/>
-      <c r="DK2" s="1"/>
-      <c r="DL2" s="1"/>
-      <c r="DM2" s="1"/>
-      <c r="DN2" s="1"/>
-      <c r="DO2" s="1"/>
-      <c r="DP2" s="1"/>
-      <c r="DQ2" s="1"/>
-      <c r="DR2" s="1"/>
-      <c r="DS2" s="1"/>
-      <c r="DT2" s="1"/>
-      <c r="DU2" s="1"/>
-      <c r="DV2" s="1"/>
-      <c r="DW2" s="1"/>
-      <c r="DX2" s="1"/>
-      <c r="DY2" s="1"/>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
-      <c r="EB2" s="1"/>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
-      <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
-      <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
-      <c r="EK2" s="1"/>
-      <c r="EL2" s="1"/>
-      <c r="EM2" s="1"/>
-      <c r="EN2" s="1"/>
-      <c r="EO2" s="1"/>
-      <c r="EP2" s="1"/>
-      <c r="EQ2" s="1"/>
-      <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
-      <c r="ET2" s="1"/>
-      <c r="EU2" s="1"/>
-      <c r="EV2" s="1"/>
-      <c r="EW2" s="1"/>
-      <c r="EX2" s="1"/>
-      <c r="EY2" s="1"/>
-      <c r="EZ2" s="1"/>
-      <c r="FA2" s="1"/>
-      <c r="FB2" s="1"/>
-      <c r="FC2" s="1"/>
-      <c r="FD2" s="1"/>
-      <c r="FE2" s="1"/>
-      <c r="FF2" s="1"/>
-      <c r="FG2" s="1"/>
-      <c r="FH2" s="1"/>
-      <c r="FI2" s="1"/>
-      <c r="FJ2" s="1"/>
-      <c r="FK2" s="1"/>
-      <c r="FL2" s="1"/>
-      <c r="FM2" s="1"/>
-      <c r="FN2" s="1"/>
-      <c r="FO2" s="1"/>
-      <c r="FP2" s="1"/>
-      <c r="FQ2" s="1"/>
-      <c r="FR2" s="1"/>
-      <c r="FS2" s="1"/>
-      <c r="FT2" s="1"/>
-      <c r="FU2" s="1"/>
-      <c r="FV2" s="1"/>
-      <c r="FW2" s="1"/>
-      <c r="FX2" s="1"/>
-      <c r="FY2" s="1"/>
-      <c r="FZ2" s="1"/>
-      <c r="GA2" s="1"/>
-      <c r="GB2" s="1"/>
-      <c r="GC2" s="1"/>
-      <c r="GD2" s="1"/>
-      <c r="GE2" s="1"/>
-      <c r="GF2" s="1"/>
-      <c r="GG2" s="1"/>
-      <c r="GH2" s="1"/>
-      <c r="GI2" s="1"/>
-      <c r="GJ2" s="1"/>
-      <c r="GK2" s="1"/>
-      <c r="GL2" s="1"/>
-      <c r="GM2" s="1"/>
-      <c r="GN2" s="1"/>
-      <c r="GO2" s="1"/>
-      <c r="GP2" s="1"/>
-      <c r="GQ2" s="1"/>
-      <c r="GR2" s="1"/>
-      <c r="GS2" s="1"/>
-      <c r="GT2" s="1"/>
-      <c r="GU2" s="1"/>
-      <c r="GV2" s="1"/>
-      <c r="GW2" s="1"/>
-      <c r="GX2" s="1"/>
-      <c r="GY2" s="1"/>
-      <c r="GZ2" s="1"/>
-      <c r="HA2" s="1"/>
-      <c r="HB2" s="1"/>
-      <c r="HC2" s="1"/>
-      <c r="HD2" s="1"/>
-      <c r="HE2" s="1"/>
-      <c r="HF2" s="1"/>
-      <c r="HG2" s="1"/>
-      <c r="HH2" s="1"/>
-      <c r="HI2" s="1"/>
-      <c r="HJ2" s="1"/>
-      <c r="HK2" s="1"/>
-      <c r="HL2" s="1"/>
-      <c r="HM2" s="1"/>
-      <c r="HN2" s="1"/>
-      <c r="HO2" s="1"/>
-      <c r="HP2" s="1"/>
-      <c r="HQ2" s="1"/>
-      <c r="HR2" s="1"/>
-      <c r="HS2" s="1"/>
-      <c r="HT2" s="1"/>
-      <c r="HU2" s="1"/>
-      <c r="HV2" s="1"/>
-      <c r="HW2" s="1"/>
-      <c r="HX2" s="1"/>
-      <c r="HY2" s="1"/>
-      <c r="HZ2" s="1"/>
-      <c r="IA2" s="1"/>
-      <c r="IB2" s="1"/>
-      <c r="IC2" s="1"/>
-      <c r="ID2" s="1"/>
-      <c r="IE2" s="1"/>
-      <c r="IF2" s="1"/>
-      <c r="IG2" s="1"/>
-      <c r="IH2" s="1"/>
-      <c r="II2" s="1"/>
-      <c r="IJ2" s="1"/>
-      <c r="IK2" s="1"/>
-      <c r="IL2" s="1"/>
-      <c r="IM2" s="1"/>
-      <c r="IN2" s="1"/>
-      <c r="IO2" s="1"/>
-      <c r="IP2" s="1"/>
-      <c r="IQ2" s="1"/>
-      <c r="IR2" s="1"/>
-      <c r="IS2" s="1"/>
-      <c r="IT2" s="1"/>
-      <c r="IU2" s="1"/>
-      <c r="IV2" s="1"/>
-      <c r="IW2" s="1"/>
-      <c r="IX2" s="1"/>
-      <c r="IY2" s="1"/>
-      <c r="IZ2" s="1"/>
-      <c r="JA2" s="1"/>
-      <c r="JB2" s="1"/>
-      <c r="JC2" s="1"/>
-      <c r="JD2" s="1"/>
-      <c r="JE2" s="1"/>
-      <c r="JF2" s="1"/>
-      <c r="JG2" s="1"/>
-      <c r="JH2" s="1"/>
-      <c r="JI2" s="1"/>
-      <c r="JJ2" s="1"/>
-      <c r="JK2" s="1"/>
-      <c r="JL2" s="1"/>
-      <c r="JM2" s="1"/>
-      <c r="JN2" s="1"/>
-      <c r="JO2" s="1"/>
-      <c r="JP2" s="1"/>
-      <c r="JQ2" s="1"/>
-      <c r="JR2" s="1"/>
-      <c r="JS2" s="1"/>
-      <c r="JT2" s="1"/>
-      <c r="JU2" s="1"/>
-      <c r="JV2" s="1"/>
-      <c r="JW2" s="1"/>
-      <c r="JX2" s="1"/>
-      <c r="JY2" s="1"/>
-      <c r="JZ2" s="1"/>
-      <c r="KA2" s="1"/>
-      <c r="KB2" s="1"/>
-      <c r="KC2" s="1"/>
-      <c r="KD2" s="1"/>
-      <c r="KE2" s="1"/>
-      <c r="KF2" s="1"/>
-      <c r="KG2" s="1"/>
-      <c r="KH2" s="1"/>
-      <c r="KI2" s="1"/>
-      <c r="KJ2" s="1"/>
-      <c r="KK2" s="1"/>
-      <c r="KL2" s="1"/>
-      <c r="KM2" s="1"/>
-      <c r="KN2" s="1"/>
-      <c r="KO2" s="1"/>
-      <c r="KP2" s="1"/>
-      <c r="KQ2" s="1"/>
-      <c r="KR2" s="1"/>
-      <c r="KS2" s="1"/>
-      <c r="KT2" s="1"/>
-      <c r="KU2" s="1"/>
-      <c r="KV2" s="1"/>
-      <c r="KW2" s="1"/>
-      <c r="KX2" s="1"/>
-      <c r="KY2" s="1"/>
-      <c r="KZ2" s="1"/>
-      <c r="LA2" s="1"/>
-      <c r="LB2" s="1"/>
-      <c r="LC2" s="1"/>
-      <c r="LD2" s="1"/>
-      <c r="LE2" s="1"/>
-      <c r="LF2" s="1"/>
-      <c r="LG2" s="1"/>
-      <c r="LH2" s="1"/>
-      <c r="LI2" s="1"/>
-      <c r="LJ2" s="1"/>
-      <c r="LK2" s="1"/>
-      <c r="LL2" s="1"/>
-      <c r="LM2" s="1"/>
-      <c r="LN2" s="1"/>
-      <c r="LO2" s="1"/>
-      <c r="LP2" s="1"/>
-      <c r="LQ2" s="1"/>
-      <c r="LR2" s="1"/>
-      <c r="LS2" s="1"/>
-      <c r="LT2" s="1"/>
-      <c r="LU2" s="1"/>
-      <c r="LV2" s="1"/>
-      <c r="LW2" s="1"/>
-      <c r="LX2" s="1"/>
-      <c r="LY2" s="1"/>
-      <c r="LZ2" s="1"/>
-      <c r="MA2" s="1"/>
-      <c r="MB2" s="1"/>
-      <c r="MC2" s="1"/>
-      <c r="MD2" s="1"/>
-      <c r="ME2" s="1"/>
-      <c r="MF2" s="1"/>
-      <c r="MG2" s="1"/>
-      <c r="MH2" s="1"/>
-      <c r="MI2" s="1"/>
-      <c r="MJ2" s="1"/>
-      <c r="MK2" s="1"/>
-      <c r="ML2" s="1"/>
-      <c r="MM2" s="1"/>
-      <c r="MN2" s="1"/>
-      <c r="MO2" s="1"/>
-      <c r="MP2" s="1"/>
-      <c r="MQ2" s="1"/>
-      <c r="MR2" s="1"/>
-      <c r="MS2" s="1"/>
-      <c r="MT2" s="1"/>
-      <c r="MU2" s="1"/>
-      <c r="MV2" s="1"/>
-      <c r="MW2" s="1"/>
-      <c r="MX2" s="1"/>
-      <c r="MY2" s="1"/>
-      <c r="MZ2" s="1"/>
-      <c r="NA2" s="1"/>
-      <c r="NB2" s="1"/>
-      <c r="NC2" s="1"/>
-      <c r="ND2" s="1"/>
-      <c r="NE2" s="1"/>
-      <c r="NF2" s="1"/>
-      <c r="NG2" s="1"/>
-      <c r="NH2" s="1"/>
-      <c r="NI2" s="1"/>
-      <c r="NJ2" s="1"/>
-      <c r="NK2" s="1"/>
-      <c r="NL2" s="1"/>
-      <c r="NM2" s="1"/>
-      <c r="NN2" s="1"/>
-      <c r="NO2" s="1"/>
-      <c r="NP2" s="1"/>
-      <c r="NQ2" s="1"/>
-      <c r="NR2" s="1"/>
-      <c r="NS2" s="1"/>
-      <c r="NT2" s="1"/>
-      <c r="NU2" s="1"/>
-      <c r="NV2" s="1"/>
-      <c r="NW2" s="1"/>
-      <c r="NX2" s="1"/>
-      <c r="NY2" s="1"/>
-      <c r="NZ2" s="1"/>
-      <c r="OA2" s="1"/>
-      <c r="OB2" s="1"/>
-      <c r="OC2" s="1"/>
-      <c r="OD2" s="1"/>
-      <c r="OE2" s="1"/>
-      <c r="OF2" s="1"/>
-      <c r="OG2" s="1"/>
-      <c r="OH2" s="1"/>
-      <c r="OI2" s="1"/>
-      <c r="OJ2" s="1"/>
-      <c r="OK2" s="1"/>
-      <c r="OL2" s="1"/>
-      <c r="OM2" s="1"/>
-      <c r="ON2" s="1"/>
-      <c r="OO2" s="1"/>
-      <c r="OP2" s="1"/>
-      <c r="OQ2" s="1"/>
-      <c r="OR2" s="1"/>
-      <c r="OS2" s="1"/>
-      <c r="OT2" s="1"/>
-      <c r="OU2" s="1"/>
-      <c r="OV2" s="1"/>
-      <c r="OW2" s="1"/>
-      <c r="OX2" s="1"/>
-      <c r="OY2" s="1"/>
-      <c r="OZ2" s="1"/>
-      <c r="PA2" s="1"/>
-      <c r="PB2" s="1"/>
-      <c r="PC2" s="1"/>
-      <c r="PD2" s="1"/>
-      <c r="PE2" s="1"/>
-      <c r="PF2" s="1"/>
-      <c r="PG2" s="1"/>
-      <c r="PH2" s="1"/>
-      <c r="PI2" s="1"/>
-      <c r="PJ2" s="1"/>
-      <c r="PK2" s="1"/>
-      <c r="PL2" s="1"/>
-      <c r="PM2" s="1"/>
-      <c r="PN2" s="1"/>
-      <c r="PO2" s="1"/>
-      <c r="PP2" s="1"/>
-      <c r="PQ2" s="1"/>
-      <c r="PR2" s="1"/>
-      <c r="PS2" s="1"/>
-      <c r="PT2" s="1"/>
-      <c r="PU2" s="1"/>
-      <c r="PV2" s="1"/>
-      <c r="PW2" s="1"/>
-      <c r="PX2" s="1"/>
-      <c r="PY2" s="1"/>
-      <c r="PZ2" s="1"/>
-      <c r="QA2" s="1"/>
-      <c r="QB2" s="1"/>
-      <c r="QC2" s="1"/>
-      <c r="QD2" s="1"/>
-      <c r="QE2" s="1"/>
-      <c r="QF2" s="1"/>
-      <c r="QG2" s="1"/>
-      <c r="QH2" s="1"/>
-      <c r="QI2" s="1"/>
-      <c r="QJ2" s="1"/>
-      <c r="QK2" s="1"/>
-      <c r="QL2" s="1"/>
-      <c r="QM2" s="1"/>
-      <c r="QN2" s="1"/>
-      <c r="QO2" s="1"/>
-      <c r="QP2" s="1"/>
-      <c r="QQ2" s="1"/>
-      <c r="QR2" s="1"/>
-      <c r="QS2" s="1"/>
-      <c r="QT2" s="1"/>
-      <c r="QU2" s="1"/>
-      <c r="QV2" s="1"/>
-      <c r="QW2" s="1"/>
-      <c r="QX2" s="1"/>
-      <c r="QY2" s="1"/>
-      <c r="QZ2" s="1"/>
-      <c r="RA2" s="1"/>
-      <c r="RB2" s="1"/>
-      <c r="RC2" s="1"/>
-      <c r="RD2" s="1"/>
-      <c r="RE2" s="1"/>
-      <c r="RF2" s="1"/>
-      <c r="RG2" s="1"/>
-      <c r="RH2" s="1"/>
-      <c r="RI2" s="1"/>
-      <c r="RJ2" s="1"/>
-      <c r="RK2" s="1"/>
-      <c r="RL2" s="1"/>
-      <c r="RM2" s="1"/>
-      <c r="RN2" s="1"/>
-      <c r="RO2" s="1"/>
-      <c r="RP2" s="1"/>
-      <c r="RQ2" s="1"/>
-      <c r="RR2" s="1"/>
-      <c r="RS2" s="1"/>
-      <c r="RT2" s="1"/>
-      <c r="RU2" s="1"/>
-      <c r="RV2" s="1"/>
-      <c r="RW2" s="1"/>
-      <c r="RX2" s="1"/>
-      <c r="RY2" s="1"/>
-      <c r="RZ2" s="1"/>
-      <c r="SA2" s="1"/>
-      <c r="SB2" s="1"/>
-      <c r="SC2" s="1"/>
-      <c r="SD2" s="1"/>
-      <c r="SE2" s="1"/>
-      <c r="SF2" s="1"/>
-      <c r="SG2" s="1"/>
-      <c r="SH2" s="1"/>
-      <c r="SI2" s="1"/>
-      <c r="SJ2" s="1"/>
-      <c r="SK2" s="1"/>
-      <c r="SL2" s="1"/>
-      <c r="SM2" s="1"/>
-      <c r="SN2" s="1"/>
-      <c r="SO2" s="1"/>
-      <c r="SP2" s="1"/>
-      <c r="SQ2" s="1"/>
-      <c r="SR2" s="1"/>
-      <c r="SS2" s="1"/>
-      <c r="ST2" s="1"/>
-      <c r="SU2" s="1"/>
-      <c r="SV2" s="1"/>
-      <c r="SW2" s="1"/>
-      <c r="SX2" s="1"/>
-      <c r="SY2" s="1"/>
-      <c r="SZ2" s="1"/>
-      <c r="TA2" s="1"/>
-      <c r="TB2" s="1"/>
-      <c r="TC2" s="1"/>
-      <c r="TD2" s="1"/>
-      <c r="TE2" s="1"/>
-      <c r="TF2" s="1"/>
-      <c r="TG2" s="1"/>
-      <c r="TH2" s="1"/>
-      <c r="TI2" s="1"/>
-      <c r="TJ2" s="1"/>
-      <c r="TK2" s="1"/>
-      <c r="TL2" s="1"/>
-      <c r="TM2" s="1"/>
-      <c r="TN2" s="1"/>
-      <c r="TO2" s="1"/>
-      <c r="TP2" s="1"/>
-      <c r="TQ2" s="1"/>
-      <c r="TR2" s="1"/>
-      <c r="TS2" s="1"/>
-      <c r="TT2" s="1"/>
-      <c r="TU2" s="1"/>
-      <c r="TV2" s="1"/>
-      <c r="TW2" s="1"/>
-      <c r="TX2" s="1"/>
-      <c r="TY2" s="1"/>
-      <c r="TZ2" s="1"/>
-      <c r="UA2" s="1"/>
-      <c r="UB2" s="1"/>
-      <c r="UC2" s="1"/>
-      <c r="UD2" s="1"/>
-      <c r="UE2" s="1"/>
-      <c r="UF2" s="1"/>
-      <c r="UG2" s="1"/>
-      <c r="UH2" s="1"/>
-      <c r="UI2" s="1"/>
-      <c r="UJ2" s="1"/>
-      <c r="UK2" s="1"/>
-      <c r="UL2" s="1"/>
-      <c r="UM2" s="1"/>
-      <c r="UN2" s="1"/>
-      <c r="UO2" s="1"/>
-      <c r="UP2" s="1"/>
-      <c r="UQ2" s="1"/>
-      <c r="UR2" s="1"/>
-      <c r="US2" s="1"/>
-      <c r="UT2" s="1"/>
-      <c r="UU2" s="1"/>
-      <c r="UV2" s="1"/>
-      <c r="UW2" s="1"/>
-      <c r="UX2" s="1"/>
-      <c r="UY2" s="1"/>
-      <c r="UZ2" s="1"/>
-      <c r="VA2" s="1"/>
-      <c r="VB2" s="1"/>
-      <c r="VC2" s="1"/>
-      <c r="VD2" s="1"/>
-      <c r="VE2" s="1"/>
-      <c r="VF2" s="1"/>
-      <c r="VG2" s="1"/>
-      <c r="VH2" s="1"/>
-      <c r="VI2" s="1"/>
-      <c r="VJ2" s="1"/>
-      <c r="VK2" s="1"/>
-      <c r="VL2" s="1"/>
-      <c r="VM2" s="1"/>
-      <c r="VN2" s="1"/>
-      <c r="VO2" s="1"/>
-      <c r="VP2" s="1"/>
-      <c r="VQ2" s="1"/>
-      <c r="VR2" s="1"/>
-      <c r="VS2" s="1"/>
-      <c r="VT2" s="1"/>
-      <c r="VU2" s="1"/>
-      <c r="VV2" s="1"/>
-      <c r="VW2" s="1"/>
-      <c r="VX2" s="1"/>
-      <c r="VY2" s="1"/>
-      <c r="VZ2" s="1"/>
-      <c r="WA2" s="1"/>
-      <c r="WB2" s="1"/>
-      <c r="WC2" s="1"/>
-      <c r="WD2" s="1"/>
-      <c r="WE2" s="1"/>
-      <c r="WF2" s="1"/>
-      <c r="WG2" s="1"/>
-      <c r="WH2" s="1"/>
-      <c r="WI2" s="1"/>
-      <c r="WJ2" s="1"/>
-      <c r="WK2" s="1"/>
-      <c r="WL2" s="1"/>
-      <c r="WM2" s="1"/>
-      <c r="WN2" s="1"/>
-      <c r="WO2" s="1"/>
-      <c r="WP2" s="1"/>
-      <c r="WQ2" s="1"/>
-      <c r="WR2" s="1"/>
-      <c r="WS2" s="1"/>
-      <c r="WT2" s="1"/>
-      <c r="WU2" s="1"/>
-      <c r="WV2" s="1"/>
-      <c r="WW2" s="1"/>
-      <c r="WX2" s="1"/>
-      <c r="WY2" s="1"/>
-      <c r="WZ2" s="1"/>
-      <c r="XA2" s="1"/>
-      <c r="XB2" s="1"/>
-      <c r="XC2" s="1"/>
-      <c r="XD2" s="1"/>
-      <c r="XE2" s="1"/>
-      <c r="XF2" s="1"/>
-      <c r="XG2" s="1"/>
-      <c r="XH2" s="1"/>
-      <c r="XI2" s="1"/>
-      <c r="XJ2" s="1"/>
-      <c r="XK2" s="1"/>
-      <c r="XL2" s="1"/>
-      <c r="XM2" s="1"/>
-      <c r="XN2" s="1"/>
-      <c r="XO2" s="1"/>
-      <c r="XP2" s="1"/>
-      <c r="XQ2" s="1"/>
-      <c r="XR2" s="1"/>
-      <c r="XS2" s="1"/>
-      <c r="XT2" s="1"/>
-      <c r="XU2" s="1"/>
-      <c r="XV2" s="1"/>
-      <c r="XW2" s="1"/>
-      <c r="XX2" s="1"/>
-      <c r="XY2" s="1"/>
-      <c r="XZ2" s="1"/>
-      <c r="YA2" s="1"/>
-      <c r="YB2" s="1"/>
-      <c r="YC2" s="1"/>
-      <c r="YD2" s="1"/>
-      <c r="YE2" s="1"/>
-      <c r="YF2" s="1"/>
-      <c r="YG2" s="1"/>
-      <c r="YH2" s="1"/>
-      <c r="YI2" s="1"/>
-      <c r="YJ2" s="1"/>
-      <c r="YK2" s="1"/>
-      <c r="YL2" s="1"/>
-      <c r="YM2" s="1"/>
-      <c r="YN2" s="1"/>
-      <c r="YO2" s="1"/>
-      <c r="YP2" s="1"/>
-      <c r="YQ2" s="1"/>
-      <c r="YR2" s="1"/>
-      <c r="YS2" s="1"/>
-      <c r="YT2" s="1"/>
-      <c r="YU2" s="1"/>
-      <c r="YV2" s="1"/>
-      <c r="YW2" s="1"/>
-      <c r="YX2" s="1"/>
-      <c r="YY2" s="1"/>
-      <c r="YZ2" s="1"/>
-      <c r="ZA2" s="1"/>
-      <c r="ZB2" s="1"/>
-      <c r="ZC2" s="1"/>
-      <c r="ZD2" s="1"/>
-      <c r="ZE2" s="1"/>
-      <c r="ZF2" s="1"/>
-      <c r="ZG2" s="1"/>
-      <c r="ZH2" s="1"/>
-      <c r="ZI2" s="1"/>
-      <c r="ZJ2" s="1"/>
-      <c r="ZK2" s="1"/>
-      <c r="ZL2" s="1"/>
-      <c r="ZM2" s="1"/>
-      <c r="ZN2" s="1"/>
-      <c r="ZO2" s="1"/>
-      <c r="ZP2" s="1"/>
-      <c r="ZQ2" s="1"/>
-      <c r="ZR2" s="1"/>
-      <c r="ZS2" s="1"/>
-      <c r="ZT2" s="1"/>
-      <c r="ZU2" s="1"/>
-      <c r="ZV2" s="1"/>
-      <c r="ZW2" s="1"/>
-      <c r="ZX2" s="1"/>
-      <c r="ZY2" s="1"/>
-      <c r="ZZ2" s="1"/>
-      <c r="AAA2" s="1"/>
-      <c r="AAB2" s="1"/>
-      <c r="AAC2" s="1"/>
-      <c r="AAD2" s="1"/>
-      <c r="AAE2" s="1"/>
-      <c r="AAF2" s="1"/>
-      <c r="AAG2" s="1"/>
-      <c r="AAH2" s="1"/>
-      <c r="AAI2" s="1"/>
-      <c r="AAJ2" s="1"/>
-      <c r="AAK2" s="1"/>
-      <c r="AAL2" s="1"/>
-      <c r="AAM2" s="1"/>
-      <c r="AAN2" s="1"/>
-      <c r="AAO2" s="1"/>
-      <c r="AAP2" s="1"/>
-      <c r="AAQ2" s="1"/>
-      <c r="AAR2" s="1"/>
-      <c r="AAS2" s="1"/>
-      <c r="AAT2" s="1"/>
-      <c r="AAU2" s="1"/>
-      <c r="AAV2" s="1"/>
-      <c r="AAW2" s="1"/>
-      <c r="AAX2" s="1"/>
-      <c r="AAY2" s="1"/>
-      <c r="AAZ2" s="1"/>
-      <c r="ABA2" s="1"/>
-      <c r="ABB2" s="1"/>
-      <c r="ABC2" s="1"/>
-      <c r="ABD2" s="1"/>
-      <c r="ABE2" s="1"/>
-      <c r="ABF2" s="1"/>
-      <c r="ABG2" s="1"/>
-      <c r="ABH2" s="1"/>
-      <c r="ABI2" s="1"/>
-      <c r="ABJ2" s="1"/>
-      <c r="ABK2" s="1"/>
-      <c r="ABL2" s="1"/>
-      <c r="ABM2" s="1"/>
-      <c r="ABN2" s="1"/>
-      <c r="ABO2" s="1"/>
-      <c r="ABP2" s="1"/>
-      <c r="ABQ2" s="1"/>
-      <c r="ABR2" s="1"/>
-      <c r="ABS2" s="1"/>
-      <c r="ABT2" s="1"/>
-      <c r="ABU2" s="1"/>
-      <c r="ABV2" s="1"/>
-      <c r="ABW2" s="1"/>
-      <c r="ABX2" s="1"/>
-      <c r="ABY2" s="1"/>
-      <c r="ABZ2" s="1"/>
-      <c r="ACA2" s="1"/>
-      <c r="ACB2" s="1"/>
-      <c r="ACC2" s="1"/>
-      <c r="ACD2" s="1"/>
-      <c r="ACE2" s="1"/>
-      <c r="ACF2" s="1"/>
-      <c r="ACG2" s="1"/>
-      <c r="ACH2" s="1"/>
-      <c r="ACI2" s="1"/>
-      <c r="ACJ2" s="1"/>
-      <c r="ACK2" s="1"/>
-      <c r="ACL2" s="1"/>
-      <c r="ACM2" s="1"/>
-      <c r="ACN2" s="1"/>
-      <c r="ACO2" s="1"/>
-      <c r="ACP2" s="1"/>
-      <c r="ACQ2" s="1"/>
-      <c r="ACR2" s="1"/>
-      <c r="ACS2" s="1"/>
-      <c r="ACT2" s="1"/>
-      <c r="ACU2" s="1"/>
-      <c r="ACV2" s="1"/>
-      <c r="ACW2" s="1"/>
-      <c r="ACX2" s="1"/>
-      <c r="ACY2" s="1"/>
-      <c r="ACZ2" s="1"/>
-      <c r="ADA2" s="1"/>
-      <c r="ADB2" s="1"/>
-      <c r="ADC2" s="1"/>
-      <c r="ADD2" s="1"/>
-      <c r="ADE2" s="1"/>
-      <c r="ADF2" s="1"/>
-      <c r="ADG2" s="1"/>
-      <c r="ADH2" s="1"/>
-      <c r="ADI2" s="1"/>
-      <c r="ADJ2" s="1"/>
-      <c r="ADK2" s="1"/>
-      <c r="ADL2" s="1"/>
-      <c r="ADM2" s="1"/>
-      <c r="ADN2" s="1"/>
-      <c r="ADO2" s="1"/>
-      <c r="ADP2" s="1"/>
-      <c r="ADQ2" s="1"/>
-      <c r="ADR2" s="1"/>
-      <c r="ADS2" s="1"/>
-      <c r="ADT2" s="1"/>
-      <c r="ADU2" s="1"/>
-      <c r="ADV2" s="1"/>
-      <c r="ADW2" s="1"/>
-      <c r="ADX2" s="1"/>
-      <c r="ADY2" s="1"/>
-      <c r="ADZ2" s="1"/>
-      <c r="AEA2" s="1"/>
-      <c r="AEB2" s="1"/>
-      <c r="AEC2" s="1"/>
-      <c r="AED2" s="1"/>
-      <c r="AEE2" s="1"/>
-      <c r="AEF2" s="1"/>
-      <c r="AEG2" s="1"/>
-      <c r="AEH2" s="1"/>
-      <c r="AEI2" s="1"/>
-      <c r="AEJ2" s="1"/>
-      <c r="AEK2" s="1"/>
-      <c r="AEL2" s="1"/>
-      <c r="AEM2" s="1"/>
-      <c r="AEN2" s="1"/>
-      <c r="AEO2" s="1"/>
-      <c r="AEP2" s="1"/>
-      <c r="AEQ2" s="1"/>
-      <c r="AER2" s="1"/>
-      <c r="AES2" s="1"/>
-      <c r="AET2" s="1"/>
-      <c r="AEU2" s="1"/>
-      <c r="AEV2" s="1"/>
-      <c r="AEW2" s="1"/>
-      <c r="AEX2" s="1"/>
-      <c r="AEY2" s="1"/>
-      <c r="AEZ2" s="1"/>
-      <c r="AFA2" s="1"/>
-      <c r="AFB2" s="1"/>
-      <c r="AFC2" s="1"/>
-      <c r="AFD2" s="1"/>
-      <c r="AFE2" s="1"/>
-      <c r="AFF2" s="1"/>
-      <c r="AFG2" s="1"/>
-      <c r="AFH2" s="1"/>
-      <c r="AFI2" s="1"/>
-      <c r="AFJ2" s="1"/>
-      <c r="AFK2" s="1"/>
-      <c r="AFL2" s="1"/>
-      <c r="AFM2" s="1"/>
-      <c r="AFN2" s="1"/>
-      <c r="AFO2" s="1"/>
-      <c r="AFP2" s="1"/>
-      <c r="AFQ2" s="1"/>
-      <c r="AFR2" s="1"/>
-      <c r="AFS2" s="1"/>
-      <c r="AFT2" s="1"/>
+      <c r="GM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="HZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ID2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="II2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="IZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="JZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="KZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="LZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ME2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ML2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="MZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ND2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="NZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ON2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="OZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="PZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="QZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="RZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ST2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="SZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="TZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="US2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="UZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="VZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="WZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="XZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="YZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ZZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AAZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ABZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ACZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ADZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AED2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AER2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AES2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AET2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AEZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AFT2" s="1">
+        <v>0</v>
+      </c>
       <c r="AFU2" s="1"/>
       <c r="AFV2" s="1"/>
       <c r="AFW2" s="1"/>
